--- a/Doc/CODSchemaDictionary.xlsx
+++ b/Doc/CODSchemaDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D5628-F52B-4AB5-8A27-7F37F5EF0AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031C55E1-EACA-40FE-9A7B-4076B01E926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5880" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5880" uniqueCount="517">
   <si>
     <t>Template GDB</t>
   </si>
@@ -1561,132 +1561,6 @@
   </si>
   <si>
     <t>featureALT2EN</t>
-  </si>
-  <si>
-    <t>ADM0ALT1_FR</t>
-  </si>
-  <si>
-    <t>ADM0ALT1_AR</t>
-  </si>
-  <si>
-    <t>ADM0ALT1_ES</t>
-  </si>
-  <si>
-    <t>ADM1ALT1_FR</t>
-  </si>
-  <si>
-    <t>ADM1ALT1_AR</t>
-  </si>
-  <si>
-    <t>ADM1ALT1_ES</t>
-  </si>
-  <si>
-    <t>ADM2ALT1_FR</t>
-  </si>
-  <si>
-    <t>ADM2ALT1_AR</t>
-  </si>
-  <si>
-    <t>ADM2ALT1_ES</t>
-  </si>
-  <si>
-    <t>ADM3ALT1_FR</t>
-  </si>
-  <si>
-    <t>ADM3ALT1_AR</t>
-  </si>
-  <si>
-    <t>ADM3ALT1_ES</t>
-  </si>
-  <si>
-    <t>ADM4ALT1_FR</t>
-  </si>
-  <si>
-    <t>ADM4ALT1_AR</t>
-  </si>
-  <si>
-    <t>ADM4ALT1_ES</t>
-  </si>
-  <si>
-    <t>ADM5ALT1_FR</t>
-  </si>
-  <si>
-    <t>ADM5ALT1_AR</t>
-  </si>
-  <si>
-    <t>ADM5ALT1_ES</t>
-  </si>
-  <si>
-    <t>featureALT1_FR</t>
-  </si>
-  <si>
-    <t>featureALT1_AR</t>
-  </si>
-  <si>
-    <t>featureALT1_ES</t>
-  </si>
-  <si>
-    <t>ADM0ALT2_FR</t>
-  </si>
-  <si>
-    <t>ADM0ALT2_AR</t>
-  </si>
-  <si>
-    <t>ADM0ALT2_ES</t>
-  </si>
-  <si>
-    <t>ADM1ALT2_FR</t>
-  </si>
-  <si>
-    <t>ADM1ALT2_AR</t>
-  </si>
-  <si>
-    <t>ADM1ALT2_ES</t>
-  </si>
-  <si>
-    <t>ADM2ALT2_FR</t>
-  </si>
-  <si>
-    <t>ADM2ALT2_AR</t>
-  </si>
-  <si>
-    <t>ADM2ALT2_ES</t>
-  </si>
-  <si>
-    <t>ADM3ALT2_FR</t>
-  </si>
-  <si>
-    <t>ADM3ALT2_AR</t>
-  </si>
-  <si>
-    <t>ADM3ALT2_ES</t>
-  </si>
-  <si>
-    <t>ADM4ALT2_FR</t>
-  </si>
-  <si>
-    <t>ADM4ALT2_AR</t>
-  </si>
-  <si>
-    <t>ADM4ALT2_ES</t>
-  </si>
-  <si>
-    <t>ADM5ALT2_FR</t>
-  </si>
-  <si>
-    <t>ADM5ALT2_AR</t>
-  </si>
-  <si>
-    <t>ADM5ALT2_ES</t>
-  </si>
-  <si>
-    <t>featureALT2_FR</t>
-  </si>
-  <si>
-    <t>featureALT2_AR</t>
-  </si>
-  <si>
-    <t>featureALT2_ES</t>
   </si>
   <si>
     <t xml:space="preserve">Field </t>
@@ -2361,6 +2235,30 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2371,30 +2269,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2692,14 +2566,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="78" t="s">
@@ -3485,14 +3359,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="102"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="98"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
@@ -3517,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE37DB-6B88-4194-A914-4E1FD4161A64}">
   <dimension ref="A1:T369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
       <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -3542,26 +3416,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
@@ -3577,7 +3451,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>0</v>
@@ -4042,7 +3916,7 @@
         <v>270</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>508</v>
+        <v>331</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>163</v>
@@ -4075,7 +3949,7 @@
         <v>270</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>529</v>
+        <v>332</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>164</v>
@@ -4108,7 +3982,7 @@
         <v>270</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>165</v>
@@ -4143,7 +4017,7 @@
         <v>270</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>530</v>
+        <v>334</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>166</v>
@@ -4178,7 +4052,7 @@
         <v>270</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>510</v>
+        <v>335</v>
       </c>
       <c r="I19" s="31" t="s">
         <v>167</v>
@@ -4211,7 +4085,7 @@
         <v>270</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>531</v>
+        <v>336</v>
       </c>
       <c r="I20" s="31" t="s">
         <v>168</v>
@@ -4795,7 +4669,7 @@
         <v>270</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>511</v>
+        <v>346</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>180</v>
@@ -4829,7 +4703,7 @@
         <v>270</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>532</v>
+        <v>347</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>181</v>
@@ -4863,7 +4737,7 @@
         <v>270</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>512</v>
+        <v>348</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>182</v>
@@ -4897,7 +4771,7 @@
         <v>270</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>533</v>
+        <v>349</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>183</v>
@@ -4931,7 +4805,7 @@
         <v>270</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>513</v>
+        <v>350</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>184</v>
@@ -4965,7 +4839,7 @@
         <v>270</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>534</v>
+        <v>351</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>185</v>
@@ -5708,7 +5582,7 @@
         <v>270</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>514</v>
+        <v>376</v>
       </c>
       <c r="I64" s="31" t="s">
         <v>188</v>
@@ -5743,7 +5617,7 @@
         <v>270</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>535</v>
+        <v>377</v>
       </c>
       <c r="I65" s="31" t="s">
         <v>189</v>
@@ -5776,7 +5650,7 @@
         <v>270</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>515</v>
+        <v>378</v>
       </c>
       <c r="I66" s="31" t="s">
         <v>190</v>
@@ -5811,7 +5685,7 @@
         <v>270</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>536</v>
+        <v>379</v>
       </c>
       <c r="I67" s="31" t="s">
         <v>191</v>
@@ -5846,7 +5720,7 @@
         <v>270</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>516</v>
+        <v>380</v>
       </c>
       <c r="I68" s="31" t="s">
         <v>192</v>
@@ -5878,7 +5752,7 @@
         <v>270</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>537</v>
+        <v>381</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>193</v>
@@ -6757,7 +6631,7 @@
         <v>270</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>517</v>
+        <v>368</v>
       </c>
       <c r="I96" s="31" t="s">
         <v>196</v>
@@ -6790,7 +6664,7 @@
         <v>270</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>538</v>
+        <v>369</v>
       </c>
       <c r="I97" s="31" t="s">
         <v>197</v>
@@ -6823,7 +6697,7 @@
         <v>270</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>518</v>
+        <v>370</v>
       </c>
       <c r="I98" s="31" t="s">
         <v>198</v>
@@ -6856,7 +6730,7 @@
         <v>270</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>539</v>
+        <v>371</v>
       </c>
       <c r="I99" s="31" t="s">
         <v>199</v>
@@ -6889,7 +6763,7 @@
         <v>270</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>519</v>
+        <v>372</v>
       </c>
       <c r="I100" s="31" t="s">
         <v>200</v>
@@ -6922,7 +6796,7 @@
         <v>270</v>
       </c>
       <c r="H101" s="26" t="s">
-        <v>540</v>
+        <v>373</v>
       </c>
       <c r="I101" s="31" t="s">
         <v>201</v>
@@ -7947,7 +7821,7 @@
         <v>270</v>
       </c>
       <c r="H133" s="26" t="s">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="I133" s="31" t="s">
         <v>204</v>
@@ -7979,7 +7853,7 @@
         <v>270</v>
       </c>
       <c r="H134" s="26" t="s">
-        <v>541</v>
+        <v>391</v>
       </c>
       <c r="I134" s="31" t="s">
         <v>205</v>
@@ -8011,7 +7885,7 @@
         <v>270</v>
       </c>
       <c r="H135" s="26" t="s">
-        <v>521</v>
+        <v>392</v>
       </c>
       <c r="I135" s="31" t="s">
         <v>206</v>
@@ -8043,7 +7917,7 @@
         <v>270</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>542</v>
+        <v>393</v>
       </c>
       <c r="I136" s="31" t="s">
         <v>207</v>
@@ -8075,7 +7949,7 @@
         <v>270</v>
       </c>
       <c r="H137" s="26" t="s">
-        <v>522</v>
+        <v>394</v>
       </c>
       <c r="I137" s="31" t="s">
         <v>208</v>
@@ -8107,7 +7981,7 @@
         <v>270</v>
       </c>
       <c r="H138" s="26" t="s">
-        <v>543</v>
+        <v>395</v>
       </c>
       <c r="I138" s="31" t="s">
         <v>209</v>
@@ -9269,7 +9143,7 @@
         <v>270</v>
       </c>
       <c r="H175" s="26" t="s">
-        <v>523</v>
+        <v>404</v>
       </c>
       <c r="I175" s="31" t="s">
         <v>212</v>
@@ -9301,7 +9175,7 @@
         <v>270</v>
       </c>
       <c r="H176" s="26" t="s">
-        <v>544</v>
+        <v>405</v>
       </c>
       <c r="I176" s="31" t="s">
         <v>213</v>
@@ -9333,7 +9207,7 @@
         <v>270</v>
       </c>
       <c r="H177" s="26" t="s">
-        <v>524</v>
+        <v>406</v>
       </c>
       <c r="I177" s="31" t="s">
         <v>214</v>
@@ -9365,7 +9239,7 @@
         <v>270</v>
       </c>
       <c r="H178" s="26" t="s">
-        <v>545</v>
+        <v>407</v>
       </c>
       <c r="I178" s="31" t="s">
         <v>215</v>
@@ -9397,7 +9271,7 @@
         <v>270</v>
       </c>
       <c r="H179" s="26" t="s">
-        <v>525</v>
+        <v>408</v>
       </c>
       <c r="I179" s="31" t="s">
         <v>216</v>
@@ -9429,7 +9303,7 @@
         <v>270</v>
       </c>
       <c r="H180" s="26" t="s">
-        <v>546</v>
+        <v>409</v>
       </c>
       <c r="I180" s="31" t="s">
         <v>217</v>
@@ -10991,7 +10865,7 @@
         <v>270</v>
       </c>
       <c r="H230" s="67" t="s">
-        <v>523</v>
+        <v>404</v>
       </c>
       <c r="I230" s="72" t="s">
         <v>212</v>
@@ -11021,7 +10895,7 @@
         <v>270</v>
       </c>
       <c r="H231" s="67" t="s">
-        <v>544</v>
+        <v>405</v>
       </c>
       <c r="I231" s="72" t="s">
         <v>213</v>
@@ -11051,7 +10925,7 @@
         <v>270</v>
       </c>
       <c r="H232" s="67" t="s">
-        <v>524</v>
+        <v>406</v>
       </c>
       <c r="I232" s="72" t="s">
         <v>214</v>
@@ -11081,7 +10955,7 @@
         <v>270</v>
       </c>
       <c r="H233" s="67" t="s">
-        <v>545</v>
+        <v>407</v>
       </c>
       <c r="I233" s="72" t="s">
         <v>215</v>
@@ -11111,7 +10985,7 @@
         <v>270</v>
       </c>
       <c r="H234" s="67" t="s">
-        <v>525</v>
+        <v>408</v>
       </c>
       <c r="I234" s="72" t="s">
         <v>216</v>
@@ -11141,7 +11015,7 @@
         <v>270</v>
       </c>
       <c r="H235" s="67" t="s">
-        <v>546</v>
+        <v>409</v>
       </c>
       <c r="I235" s="72" t="s">
         <v>217</v>
@@ -11406,7 +11280,7 @@
         <v>270</v>
       </c>
       <c r="H244" s="26" t="s">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="I244" s="72" t="s">
         <v>204</v>
@@ -11436,7 +11310,7 @@
         <v>270</v>
       </c>
       <c r="H245" s="26" t="s">
-        <v>541</v>
+        <v>391</v>
       </c>
       <c r="I245" s="72" t="s">
         <v>205</v>
@@ -11466,7 +11340,7 @@
         <v>270</v>
       </c>
       <c r="H246" s="26" t="s">
-        <v>521</v>
+        <v>392</v>
       </c>
       <c r="I246" s="72" t="s">
         <v>206</v>
@@ -11496,7 +11370,7 @@
         <v>270</v>
       </c>
       <c r="H247" s="26" t="s">
-        <v>542</v>
+        <v>393</v>
       </c>
       <c r="I247" s="72" t="s">
         <v>207</v>
@@ -11526,7 +11400,7 @@
         <v>270</v>
       </c>
       <c r="H248" s="26" t="s">
-        <v>522</v>
+        <v>394</v>
       </c>
       <c r="I248" s="72" t="s">
         <v>208</v>
@@ -11556,7 +11430,7 @@
         <v>270</v>
       </c>
       <c r="H249" s="26" t="s">
-        <v>543</v>
+        <v>395</v>
       </c>
       <c r="I249" s="72" t="s">
         <v>209</v>
@@ -11821,7 +11695,7 @@
         <v>270</v>
       </c>
       <c r="H258" s="26" t="s">
-        <v>517</v>
+        <v>368</v>
       </c>
       <c r="I258" s="72" t="s">
         <v>196</v>
@@ -11851,7 +11725,7 @@
         <v>270</v>
       </c>
       <c r="H259" s="26" t="s">
-        <v>538</v>
+        <v>369</v>
       </c>
       <c r="I259" s="72" t="s">
         <v>197</v>
@@ -11881,7 +11755,7 @@
         <v>270</v>
       </c>
       <c r="H260" s="26" t="s">
-        <v>518</v>
+        <v>370</v>
       </c>
       <c r="I260" s="72" t="s">
         <v>198</v>
@@ -11911,7 +11785,7 @@
         <v>270</v>
       </c>
       <c r="H261" s="26" t="s">
-        <v>539</v>
+        <v>371</v>
       </c>
       <c r="I261" s="72" t="s">
         <v>199</v>
@@ -11941,7 +11815,7 @@
         <v>270</v>
       </c>
       <c r="H262" s="26" t="s">
-        <v>519</v>
+        <v>372</v>
       </c>
       <c r="I262" s="72" t="s">
         <v>200</v>
@@ -11971,7 +11845,7 @@
         <v>270</v>
       </c>
       <c r="H263" s="26" t="s">
-        <v>540</v>
+        <v>373</v>
       </c>
       <c r="I263" s="72" t="s">
         <v>201</v>
@@ -12236,7 +12110,7 @@
         <v>270</v>
       </c>
       <c r="H272" s="26" t="s">
-        <v>514</v>
+        <v>376</v>
       </c>
       <c r="I272" s="72" t="s">
         <v>188</v>
@@ -12266,7 +12140,7 @@
         <v>270</v>
       </c>
       <c r="H273" s="26" t="s">
-        <v>535</v>
+        <v>377</v>
       </c>
       <c r="I273" s="72" t="s">
         <v>189</v>
@@ -12296,7 +12170,7 @@
         <v>270</v>
       </c>
       <c r="H274" s="26" t="s">
-        <v>515</v>
+        <v>378</v>
       </c>
       <c r="I274" s="72" t="s">
         <v>190</v>
@@ -12326,7 +12200,7 @@
         <v>270</v>
       </c>
       <c r="H275" s="26" t="s">
-        <v>536</v>
+        <v>379</v>
       </c>
       <c r="I275" s="72" t="s">
         <v>191</v>
@@ -12356,7 +12230,7 @@
         <v>270</v>
       </c>
       <c r="H276" s="26" t="s">
-        <v>516</v>
+        <v>380</v>
       </c>
       <c r="I276" s="72" t="s">
         <v>192</v>
@@ -12386,7 +12260,7 @@
         <v>270</v>
       </c>
       <c r="H277" s="26" t="s">
-        <v>537</v>
+        <v>381</v>
       </c>
       <c r="I277" s="72" t="s">
         <v>193</v>
@@ -12651,7 +12525,7 @@
         <v>270</v>
       </c>
       <c r="H286" s="26" t="s">
-        <v>511</v>
+        <v>346</v>
       </c>
       <c r="I286" s="72" t="s">
         <v>180</v>
@@ -12681,7 +12555,7 @@
         <v>270</v>
       </c>
       <c r="H287" s="26" t="s">
-        <v>532</v>
+        <v>347</v>
       </c>
       <c r="I287" s="72" t="s">
         <v>428</v>
@@ -12711,7 +12585,7 @@
         <v>270</v>
       </c>
       <c r="H288" s="26" t="s">
-        <v>512</v>
+        <v>348</v>
       </c>
       <c r="I288" s="72" t="s">
         <v>182</v>
@@ -12741,7 +12615,7 @@
         <v>270</v>
       </c>
       <c r="H289" s="26" t="s">
-        <v>533</v>
+        <v>349</v>
       </c>
       <c r="I289" s="72" t="s">
         <v>429</v>
@@ -12771,7 +12645,7 @@
         <v>270</v>
       </c>
       <c r="H290" s="26" t="s">
-        <v>513</v>
+        <v>350</v>
       </c>
       <c r="I290" s="72" t="s">
         <v>184</v>
@@ -12801,7 +12675,7 @@
         <v>270</v>
       </c>
       <c r="H291" s="26" t="s">
-        <v>534</v>
+        <v>351</v>
       </c>
       <c r="I291" s="72" t="s">
         <v>430</v>
@@ -13066,7 +12940,7 @@
         <v>270</v>
       </c>
       <c r="H300" s="26" t="s">
-        <v>508</v>
+        <v>331</v>
       </c>
       <c r="I300" s="72" t="s">
         <v>444</v>
@@ -13096,7 +12970,7 @@
         <v>270</v>
       </c>
       <c r="H301" s="26" t="s">
-        <v>529</v>
+        <v>332</v>
       </c>
       <c r="I301" s="72" t="s">
         <v>445</v>
@@ -13126,7 +13000,7 @@
         <v>270</v>
       </c>
       <c r="H302" s="26" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
       <c r="I302" s="72" t="s">
         <v>446</v>
@@ -13156,7 +13030,7 @@
         <v>270</v>
       </c>
       <c r="H303" s="26" t="s">
-        <v>530</v>
+        <v>334</v>
       </c>
       <c r="I303" s="72" t="s">
         <v>447</v>
@@ -13186,7 +13060,7 @@
         <v>270</v>
       </c>
       <c r="H304" s="26" t="s">
-        <v>510</v>
+        <v>335</v>
       </c>
       <c r="I304" s="72" t="s">
         <v>448</v>
@@ -13216,7 +13090,7 @@
         <v>270</v>
       </c>
       <c r="H305" s="26" t="s">
-        <v>531</v>
+        <v>336</v>
       </c>
       <c r="I305" s="72" t="s">
         <v>449</v>
@@ -13452,7 +13326,7 @@
         <v>270</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>552</v>
+        <v>510</v>
       </c>
       <c r="E313" s="3"/>
       <c r="F313" s="13"/>
@@ -13835,7 +13709,7 @@
         <v>270</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="E325" s="3"/>
       <c r="F325" s="13"/>
@@ -13843,7 +13717,7 @@
         <v>270</v>
       </c>
       <c r="H325" s="26" t="s">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="I325" s="31" t="s">
         <v>276</v>
@@ -13931,7 +13805,7 @@
         <v>270</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>553</v>
+        <v>511</v>
       </c>
       <c r="E328" s="3"/>
       <c r="F328" s="13"/>
@@ -13939,7 +13813,7 @@
         <v>270</v>
       </c>
       <c r="H328" s="26" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="I328" s="31" t="s">
         <v>220</v>
@@ -13963,7 +13837,7 @@
         <v>270</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="E329" s="3"/>
       <c r="F329" s="13"/>
@@ -13971,7 +13845,7 @@
         <v>270</v>
       </c>
       <c r="H329" s="26" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="I329" s="31" t="s">
         <v>221</v>
@@ -13995,7 +13869,7 @@
         <v>270</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="E330" s="3"/>
       <c r="F330" s="13"/>
@@ -14003,7 +13877,7 @@
         <v>270</v>
       </c>
       <c r="H330" s="26" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="I330" s="31" t="s">
         <v>222</v>
@@ -14027,7 +13901,7 @@
         <v>270</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
       <c r="E331" s="3"/>
       <c r="F331" s="13"/>
@@ -14035,7 +13909,7 @@
         <v>270</v>
       </c>
       <c r="H331" s="26" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="I331" s="31" t="s">
         <v>223</v>
@@ -14059,7 +13933,7 @@
         <v>270</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="E332" s="3"/>
       <c r="F332" s="13"/>
@@ -14067,7 +13941,7 @@
         <v>270</v>
       </c>
       <c r="H332" s="26" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="I332" s="31" t="s">
         <v>224</v>
@@ -14091,7 +13965,7 @@
         <v>270</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>557</v>
+        <v>515</v>
       </c>
       <c r="E333" s="3"/>
       <c r="F333" s="13"/>
@@ -14099,7 +13973,7 @@
         <v>270</v>
       </c>
       <c r="H333" s="26" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="I333" s="31" t="s">
         <v>225</v>
@@ -15293,26 +15167,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="91" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94" t="s">
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
@@ -27031,14 +26905,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="78" t="s">
@@ -27824,14 +27698,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="102"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="98"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>

--- a/Doc/CODSchemaDictionary.xlsx
+++ b/Doc/CODSchemaDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031C55E1-EACA-40FE-9A7B-4076B01E926C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F0D40-7FC3-4775-B8AC-4F1CD89E0C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5880" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6089" uniqueCount="532">
   <si>
     <t>Template GDB</t>
   </si>
@@ -1588,6 +1588,51 @@
   </si>
   <si>
     <t>featureALT2FR</t>
+  </si>
+  <si>
+    <t>COD_XXX_AdminPoints</t>
+  </si>
+  <si>
+    <t>POINT_X</t>
+  </si>
+  <si>
+    <t>POINT_Y</t>
+  </si>
+  <si>
+    <t>Doube</t>
+  </si>
+  <si>
+    <t>centroid longitude</t>
+  </si>
+  <si>
+    <t>centroid latitude</t>
+  </si>
+  <si>
+    <t>All admin features as points to retain x/y for applications pre COD Services API</t>
+  </si>
+  <si>
+    <t>Not included</t>
+  </si>
+  <si>
+    <t>Not Included</t>
+  </si>
+  <si>
+    <t>Gazetteer</t>
+  </si>
+  <si>
+    <t>See shapefile</t>
+  </si>
+  <si>
+    <t>XXX_ADM&lt;level number&gt;_AREA_SQKM</t>
+  </si>
+  <si>
+    <t>ADM&lt;level number&gt;_PCODE</t>
+  </si>
+  <si>
+    <t>Area_SqKm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table to retain the area in a projected equal area albers projection </t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2005,11 +2050,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2270,6 +2324,25 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3389,21 +3462,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE37DB-6B88-4194-A914-4E1FD4161A64}">
-  <dimension ref="A1:T369"/>
+  <dimension ref="A1:T374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" style="10" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" customWidth="1"/>
     <col min="9" max="9" width="34" style="10" customWidth="1"/>
     <col min="11" max="11" width="13.54296875" customWidth="1"/>
@@ -3411,7 +3484,7 @@
     <col min="13" max="13" width="16.26953125" customWidth="1"/>
     <col min="14" max="14" width="29.7265625" customWidth="1"/>
     <col min="15" max="15" width="18.7265625" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" style="104" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3439,6 +3512,9 @@
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
+      <c r="P1" s="104" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
@@ -3482,6 +3558,9 @@
         <v>142</v>
       </c>
       <c r="O2" s="57"/>
+      <c r="P2" s="105" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
@@ -3833,7 +3912,7 @@
         <v>143</v>
       </c>
       <c r="O12" s="56"/>
-      <c r="P12" s="37"/>
+      <c r="P12" s="106"/>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -4297,7 +4376,7 @@
       </c>
       <c r="N26" s="56"/>
       <c r="O26" s="34"/>
-      <c r="P26" s="29" t="s">
+      <c r="P26" s="107" t="s">
         <v>452</v>
       </c>
       <c r="Q26" s="61"/>
@@ -4333,7 +4412,7 @@
       <c r="O27" s="34" t="s">
         <v>450</v>
       </c>
-      <c r="P27" s="29" t="s">
+      <c r="P27" s="107" t="s">
         <v>451</v>
       </c>
       <c r="Q27" s="61"/>
@@ -4367,7 +4446,7 @@
       </c>
       <c r="N28" s="56"/>
       <c r="O28" s="34"/>
-      <c r="P28" s="29"/>
+      <c r="P28" s="107"/>
       <c r="Q28" s="61"/>
       <c r="R28" s="29"/>
     </row>
@@ -4549,7 +4628,7 @@
       <c r="O33" s="56" t="s">
         <v>458</v>
       </c>
-      <c r="P33" s="29"/>
+      <c r="P33" s="107"/>
       <c r="Q33" s="34"/>
     </row>
     <row r="34" spans="1:20" ht="24" x14ac:dyDescent="0.35">
@@ -4896,7 +4975,7 @@
       <c r="O43" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="P43" s="29"/>
+      <c r="P43" s="107"/>
       <c r="Q43" s="34"/>
       <c r="R43" s="34"/>
       <c r="T43" s="34"/>
@@ -4935,7 +5014,7 @@
       <c r="O44" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="P44" s="29"/>
+      <c r="P44" s="107"/>
       <c r="Q44" s="34"/>
       <c r="R44" s="34"/>
       <c r="T44" s="34"/>
@@ -4974,7 +5053,7 @@
       <c r="O45" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="P45" s="29"/>
+      <c r="P45" s="107"/>
       <c r="Q45" s="34"/>
       <c r="R45" s="34"/>
       <c r="T45" s="34"/>
@@ -5321,7 +5400,7 @@
       <c r="O56" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="P56" s="29"/>
+      <c r="P56" s="107"/>
     </row>
     <row r="57" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
@@ -5357,7 +5436,7 @@
       <c r="O57" s="56" t="s">
         <v>465</v>
       </c>
-      <c r="P57" s="29"/>
+      <c r="P57" s="107"/>
     </row>
     <row r="58" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
@@ -5393,7 +5472,7 @@
       <c r="O58" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="P58" s="29"/>
+      <c r="P58" s="107"/>
     </row>
     <row r="59" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
@@ -5429,7 +5508,7 @@
       <c r="O59" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="P59" s="29"/>
+      <c r="P59" s="107"/>
     </row>
     <row r="60" spans="1:19" ht="36" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
@@ -5465,7 +5544,7 @@
       <c r="O60" s="56" t="s">
         <v>468</v>
       </c>
-      <c r="P60" s="29"/>
+      <c r="P60" s="107"/>
     </row>
     <row r="61" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
@@ -6384,7 +6463,7 @@
       <c r="N88" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="P88" s="29"/>
+      <c r="P88" s="107"/>
     </row>
     <row r="89" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
@@ -6449,7 +6528,7 @@
       <c r="N90" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="P90" s="29"/>
+      <c r="P90" s="107"/>
     </row>
     <row r="91" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
@@ -6482,7 +6561,7 @@
       <c r="N91" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="P91" s="29"/>
+      <c r="P91" s="107"/>
     </row>
     <row r="92" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
@@ -6515,7 +6594,7 @@
       <c r="N92" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="P92" s="29"/>
+      <c r="P92" s="107"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
@@ -6548,7 +6627,7 @@
       <c r="N93" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="P93" s="29"/>
+      <c r="P93" s="107"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
@@ -6581,7 +6660,7 @@
       <c r="N94" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="P94" s="67"/>
+      <c r="P94" s="108"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
@@ -6614,7 +6693,7 @@
       <c r="N95" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="P95" s="29"/>
+      <c r="P95" s="107"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
@@ -6647,7 +6726,7 @@
       <c r="N96" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="P96" s="29"/>
+      <c r="P96" s="107"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
@@ -6680,7 +6759,7 @@
       <c r="N97" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="P97" s="29"/>
+      <c r="P97" s="107"/>
     </row>
     <row r="98" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
@@ -6713,7 +6792,7 @@
       <c r="N98" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="P98" s="29"/>
+      <c r="P98" s="107"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
@@ -6746,7 +6825,7 @@
       <c r="N99" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="P99" s="29"/>
+      <c r="P99" s="107"/>
     </row>
     <row r="100" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
@@ -6779,7 +6858,7 @@
       <c r="N100" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="P100" s="29"/>
+      <c r="P100" s="107"/>
     </row>
     <row r="101" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
@@ -6812,7 +6891,7 @@
       <c r="N101" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="P101" s="29"/>
+      <c r="P101" s="107"/>
     </row>
     <row r="102" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
@@ -6845,7 +6924,7 @@
       <c r="N102" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="P102" s="29"/>
+      <c r="P102" s="107"/>
     </row>
     <row r="103" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
@@ -6878,7 +6957,7 @@
       <c r="N103" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="P103" s="29"/>
+      <c r="P103" s="107"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
@@ -6911,7 +6990,7 @@
       <c r="N104" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="P104" s="29"/>
+      <c r="P104" s="107"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
@@ -6944,7 +7023,7 @@
       <c r="N105" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="P105" s="29"/>
+      <c r="P105" s="107"/>
     </row>
     <row r="106" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
@@ -6977,7 +7056,7 @@
       <c r="N106" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="P106" s="29"/>
+      <c r="P106" s="107"/>
     </row>
     <row r="107" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
@@ -7010,7 +7089,7 @@
       <c r="N107" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="P107" s="29"/>
+      <c r="P107" s="107"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
@@ -7043,7 +7122,7 @@
       <c r="N108" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="P108" s="29"/>
+      <c r="P108" s="107"/>
     </row>
     <row r="109" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
@@ -7076,7 +7155,7 @@
       <c r="N109" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="P109" s="29"/>
+      <c r="P109" s="107"/>
     </row>
     <row r="110" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
@@ -7109,7 +7188,7 @@
       <c r="N110" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="P110" s="29"/>
+      <c r="P110" s="107"/>
     </row>
     <row r="111" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
@@ -7142,7 +7221,7 @@
       <c r="N111" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="P111" s="29"/>
+      <c r="P111" s="107"/>
     </row>
     <row r="112" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
@@ -7175,7 +7254,7 @@
       <c r="N112" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="P112" s="29"/>
+      <c r="P112" s="107"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
@@ -7208,7 +7287,7 @@
       <c r="N113" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="P113" s="29"/>
+      <c r="P113" s="107"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
@@ -7241,7 +7320,7 @@
       <c r="N114" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="P114" s="29"/>
+      <c r="P114" s="107"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
@@ -7274,7 +7353,7 @@
       <c r="N115" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="P115" s="29"/>
+      <c r="P115" s="107"/>
     </row>
     <row r="116" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
@@ -7307,7 +7386,7 @@
       <c r="N116" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="P116" s="29"/>
+      <c r="P116" s="107"/>
     </row>
     <row r="117" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
@@ -7340,7 +7419,7 @@
       <c r="N117" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="P117" s="29"/>
+      <c r="P117" s="107"/>
     </row>
     <row r="118" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
@@ -7373,7 +7452,7 @@
       <c r="N118" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="P118" s="29"/>
+      <c r="P118" s="107"/>
     </row>
     <row r="119" spans="1:16" ht="60" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
@@ -7406,7 +7485,7 @@
       <c r="N119" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="P119" s="29"/>
+      <c r="P119" s="107"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
@@ -10386,7 +10465,7 @@
         <v>232</v>
       </c>
       <c r="O213" s="39"/>
-      <c r="P213" s="67"/>
+      <c r="P213" s="108"/>
     </row>
     <row r="214" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
@@ -10504,13 +10583,17 @@
       <c r="N217" s="56"/>
       <c r="O217" s="39"/>
     </row>
-    <row r="218" spans="1:16" ht="36.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" ht="48.5" x14ac:dyDescent="0.35">
       <c r="A218" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B218" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>517</v>
+      </c>
       <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
+      <c r="D218" s="18" t="s">
+        <v>523</v>
+      </c>
       <c r="E218" s="17" t="s">
         <v>8</v>
       </c>
@@ -10545,9 +10628,12 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
-      <c r="B219" s="21"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
+      <c r="C219" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="E219" s="3"/>
       <c r="F219" s="13"/>
       <c r="G219" s="27" t="s">
@@ -10570,9 +10656,12 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
-      <c r="B220" s="21"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
+      <c r="C220" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="E220" s="3"/>
       <c r="F220" s="13"/>
       <c r="G220" s="27" t="s">
@@ -10595,9 +10684,12 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
-      <c r="B221" s="21"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
+      <c r="C221" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D221" s="67" t="s">
+        <v>498</v>
+      </c>
       <c r="E221" s="3"/>
       <c r="F221" s="13"/>
       <c r="G221" s="71" t="s">
@@ -10620,9 +10712,12 @@
     </row>
     <row r="222" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
-      <c r="B222" s="21"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
+      <c r="C222" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>396</v>
+      </c>
       <c r="E222" s="3"/>
       <c r="F222" s="13"/>
       <c r="G222" s="27" t="s">
@@ -10649,9 +10744,12 @@
     </row>
     <row r="223" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
-      <c r="B223" s="21"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
+      <c r="C223" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D223" s="26" t="s">
+        <v>397</v>
+      </c>
       <c r="E223" s="3"/>
       <c r="F223" s="13"/>
       <c r="G223" s="27" t="s">
@@ -10678,9 +10776,12 @@
     </row>
     <row r="224" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
-      <c r="B224" s="21"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
+      <c r="C224" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>398</v>
+      </c>
       <c r="E224" s="3"/>
       <c r="F224" s="13"/>
       <c r="G224" s="27" t="s">
@@ -10707,9 +10808,12 @@
     </row>
     <row r="225" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A225" s="3"/>
-      <c r="B225" s="21"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
+      <c r="C225" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>399</v>
+      </c>
       <c r="E225" s="3"/>
       <c r="F225" s="13"/>
       <c r="G225" s="27" t="s">
@@ -10736,9 +10840,12 @@
     </row>
     <row r="226" spans="1:18" ht="36" x14ac:dyDescent="0.35">
       <c r="A226" s="3"/>
-      <c r="B226" s="21"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
+      <c r="C226" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D226" s="26" t="s">
+        <v>400</v>
+      </c>
       <c r="E226" s="3"/>
       <c r="F226" s="13"/>
       <c r="G226" s="27" t="s">
@@ -10765,9 +10872,12 @@
     </row>
     <row r="227" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A227" s="3"/>
-      <c r="B227" s="21"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
+      <c r="C227" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D227" s="67" t="s">
+        <v>401</v>
+      </c>
       <c r="E227" s="3"/>
       <c r="F227" s="13"/>
       <c r="G227" s="71" t="s">
@@ -10796,9 +10906,12 @@
     </row>
     <row r="228" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A228" s="3"/>
-      <c r="B228" s="21"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
+      <c r="C228" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D228" s="67" t="s">
+        <v>402</v>
+      </c>
       <c r="E228" s="3"/>
       <c r="F228" s="13"/>
       <c r="G228" s="71" t="s">
@@ -10826,9 +10939,12 @@
     </row>
     <row r="229" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
-      <c r="B229" s="21"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
+      <c r="C229" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D229" s="67" t="s">
+        <v>403</v>
+      </c>
       <c r="E229" s="3"/>
       <c r="F229" s="13"/>
       <c r="G229" s="71" t="s">
@@ -10856,9 +10972,12 @@
     </row>
     <row r="230" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A230" s="3"/>
-      <c r="B230" s="21"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
+      <c r="C230" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D230" s="67" t="s">
+        <v>404</v>
+      </c>
       <c r="E230" s="3"/>
       <c r="F230" s="13"/>
       <c r="G230" s="71" t="s">
@@ -10886,9 +11005,12 @@
     </row>
     <row r="231" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A231" s="3"/>
-      <c r="B231" s="21"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
+      <c r="C231" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D231" s="67" t="s">
+        <v>405</v>
+      </c>
       <c r="E231" s="3"/>
       <c r="F231" s="13"/>
       <c r="G231" s="71" t="s">
@@ -10916,9 +11038,12 @@
     </row>
     <row r="232" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A232" s="3"/>
-      <c r="B232" s="21"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
+      <c r="C232" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D232" s="67" t="s">
+        <v>406</v>
+      </c>
       <c r="E232" s="3"/>
       <c r="F232" s="13"/>
       <c r="G232" s="71" t="s">
@@ -10946,9 +11071,12 @@
     </row>
     <row r="233" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A233" s="3"/>
-      <c r="B233" s="21"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
+      <c r="C233" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D233" s="67" t="s">
+        <v>407</v>
+      </c>
       <c r="E233" s="3"/>
       <c r="F233" s="13"/>
       <c r="G233" s="71" t="s">
@@ -10976,9 +11104,12 @@
     </row>
     <row r="234" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A234" s="3"/>
-      <c r="B234" s="21"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
+      <c r="C234" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D234" s="67" t="s">
+        <v>408</v>
+      </c>
       <c r="E234" s="3"/>
       <c r="F234" s="13"/>
       <c r="G234" s="71" t="s">
@@ -11006,9 +11137,12 @@
     </row>
     <row r="235" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A235" s="3"/>
-      <c r="B235" s="21"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
+      <c r="C235" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D235" s="67" t="s">
+        <v>409</v>
+      </c>
       <c r="E235" s="3"/>
       <c r="F235" s="13"/>
       <c r="G235" s="71" t="s">
@@ -11036,9 +11170,12 @@
     </row>
     <row r="236" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A236" s="3"/>
-      <c r="B236" s="21"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
+      <c r="C236" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D236" s="26" t="s">
+        <v>382</v>
+      </c>
       <c r="E236" s="3"/>
       <c r="F236" s="13"/>
       <c r="G236" s="27" t="s">
@@ -11065,9 +11202,12 @@
     </row>
     <row r="237" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A237" s="3"/>
-      <c r="B237" s="21"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
+      <c r="C237" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D237" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="E237" s="3"/>
       <c r="F237" s="13"/>
       <c r="G237" s="27" t="s">
@@ -11094,9 +11234,12 @@
     </row>
     <row r="238" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A238" s="3"/>
-      <c r="B238" s="21"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
+      <c r="C238" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D238" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="E238" s="3"/>
       <c r="F238" s="13"/>
       <c r="G238" s="27" t="s">
@@ -11123,9 +11266,12 @@
     </row>
     <row r="239" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A239" s="3"/>
-      <c r="B239" s="21"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
+      <c r="C239" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D239" s="26" t="s">
+        <v>385</v>
+      </c>
       <c r="E239" s="3"/>
       <c r="F239" s="13"/>
       <c r="G239" s="27" t="s">
@@ -11152,9 +11298,12 @@
     </row>
     <row r="240" spans="1:18" ht="36" x14ac:dyDescent="0.35">
       <c r="A240" s="3"/>
-      <c r="B240" s="21"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
+      <c r="C240" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D240" s="26" t="s">
+        <v>386</v>
+      </c>
       <c r="E240" s="3"/>
       <c r="F240" s="13"/>
       <c r="G240" s="27" t="s">
@@ -11181,9 +11330,12 @@
     </row>
     <row r="241" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A241" s="3"/>
-      <c r="B241" s="21"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
+      <c r="C241" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D241" s="26" t="s">
+        <v>387</v>
+      </c>
       <c r="E241" s="3"/>
       <c r="F241" s="13"/>
       <c r="G241" s="27" t="s">
@@ -11207,13 +11359,16 @@
         <v>248</v>
       </c>
       <c r="O241" s="39"/>
-      <c r="P241" s="69"/>
+      <c r="P241" s="109"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A242" s="3"/>
-      <c r="B242" s="21"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
+      <c r="C242" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D242" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="E242" s="3"/>
       <c r="F242" s="13"/>
       <c r="G242" s="27" t="s">
@@ -11237,13 +11392,16 @@
         <v>202</v>
       </c>
       <c r="O242" s="39"/>
-      <c r="P242" s="69"/>
+      <c r="P242" s="109"/>
     </row>
     <row r="243" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A243" s="3"/>
-      <c r="B243" s="21"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
+      <c r="C243" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D243" s="26" t="s">
+        <v>389</v>
+      </c>
       <c r="E243" s="3"/>
       <c r="F243" s="13"/>
       <c r="G243" s="27" t="s">
@@ -11267,13 +11425,16 @@
         <v>203</v>
       </c>
       <c r="O243" s="39"/>
-      <c r="P243" s="69"/>
+      <c r="P243" s="109"/>
     </row>
     <row r="244" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A244" s="3"/>
-      <c r="B244" s="21"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
+      <c r="C244" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D244" s="26" t="s">
+        <v>390</v>
+      </c>
       <c r="E244" s="3"/>
       <c r="F244" s="13"/>
       <c r="G244" s="27" t="s">
@@ -11297,13 +11458,16 @@
         <v>204</v>
       </c>
       <c r="O244" s="39"/>
-      <c r="P244" s="69"/>
+      <c r="P244" s="109"/>
     </row>
     <row r="245" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A245" s="3"/>
-      <c r="B245" s="21"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
+      <c r="C245" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D245" s="26" t="s">
+        <v>391</v>
+      </c>
       <c r="E245" s="3"/>
       <c r="F245" s="13"/>
       <c r="G245" s="27" t="s">
@@ -11327,13 +11491,16 @@
         <v>205</v>
       </c>
       <c r="O245" s="39"/>
-      <c r="P245" s="69"/>
+      <c r="P245" s="109"/>
     </row>
     <row r="246" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A246" s="3"/>
-      <c r="B246" s="21"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
+      <c r="C246" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D246" s="26" t="s">
+        <v>392</v>
+      </c>
       <c r="E246" s="3"/>
       <c r="F246" s="13"/>
       <c r="G246" s="27" t="s">
@@ -11357,13 +11524,16 @@
         <v>206</v>
       </c>
       <c r="O246" s="39"/>
-      <c r="P246" s="69"/>
+      <c r="P246" s="109"/>
     </row>
     <row r="247" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A247" s="3"/>
-      <c r="B247" s="21"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
+      <c r="C247" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D247" s="26" t="s">
+        <v>393</v>
+      </c>
       <c r="E247" s="3"/>
       <c r="F247" s="13"/>
       <c r="G247" s="27" t="s">
@@ -11387,13 +11557,16 @@
         <v>207</v>
       </c>
       <c r="O247" s="39"/>
-      <c r="P247" s="69"/>
+      <c r="P247" s="109"/>
     </row>
     <row r="248" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A248" s="3"/>
-      <c r="B248" s="21"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
+      <c r="C248" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D248" s="26" t="s">
+        <v>394</v>
+      </c>
       <c r="E248" s="3"/>
       <c r="F248" s="13"/>
       <c r="G248" s="27" t="s">
@@ -11417,13 +11590,16 @@
         <v>208</v>
       </c>
       <c r="O248" s="39"/>
-      <c r="P248" s="69"/>
+      <c r="P248" s="109"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A249" s="3"/>
-      <c r="B249" s="21"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
+      <c r="C249" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D249" s="26" t="s">
+        <v>395</v>
+      </c>
       <c r="E249" s="3"/>
       <c r="F249" s="13"/>
       <c r="G249" s="27" t="s">
@@ -11447,13 +11623,16 @@
         <v>209</v>
       </c>
       <c r="O249" s="39"/>
-      <c r="P249" s="69"/>
+      <c r="P249" s="109"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A250" s="3"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
+      <c r="C250" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D250" s="26" t="s">
+        <v>361</v>
+      </c>
       <c r="E250" s="3"/>
       <c r="F250" s="13"/>
       <c r="G250" s="27" t="s">
@@ -11480,9 +11659,12 @@
     </row>
     <row r="251" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A251" s="3"/>
-      <c r="B251" s="21"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
+      <c r="C251" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D251" s="26" t="s">
+        <v>362</v>
+      </c>
       <c r="E251" s="3"/>
       <c r="F251" s="13"/>
       <c r="G251" s="27" t="s">
@@ -11509,9 +11691,12 @@
     </row>
     <row r="252" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A252" s="3"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
+      <c r="C252" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D252" s="26" t="s">
+        <v>363</v>
+      </c>
       <c r="E252" s="3"/>
       <c r="F252" s="13"/>
       <c r="G252" s="27" t="s">
@@ -11538,9 +11723,12 @@
     </row>
     <row r="253" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A253" s="3"/>
-      <c r="B253" s="21"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
+      <c r="C253" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D253" s="26" t="s">
+        <v>364</v>
+      </c>
       <c r="E253" s="3"/>
       <c r="F253" s="13"/>
       <c r="G253" s="27" t="s">
@@ -11567,9 +11755,12 @@
     </row>
     <row r="254" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A254" s="3"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
+      <c r="C254" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D254" s="26" t="s">
+        <v>365</v>
+      </c>
       <c r="E254" s="3"/>
       <c r="F254" s="13"/>
       <c r="G254" s="27" t="s">
@@ -11596,9 +11787,12 @@
     </row>
     <row r="255" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A255" s="3"/>
-      <c r="B255" s="21"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
+      <c r="C255" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D255" s="26" t="s">
+        <v>366</v>
+      </c>
       <c r="E255" s="3"/>
       <c r="F255" s="13"/>
       <c r="G255" s="27" t="s">
@@ -11622,13 +11816,16 @@
         <v>247</v>
       </c>
       <c r="O255" s="39"/>
-      <c r="P255" s="69"/>
+      <c r="P255" s="109"/>
     </row>
     <row r="256" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A256" s="3"/>
-      <c r="B256" s="21"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
+      <c r="C256" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D256" s="26" t="s">
+        <v>328</v>
+      </c>
       <c r="E256" s="3"/>
       <c r="F256" s="13"/>
       <c r="G256" s="27" t="s">
@@ -11652,13 +11849,16 @@
         <v>194</v>
       </c>
       <c r="O256" s="39"/>
-      <c r="P256" s="69"/>
+      <c r="P256" s="109"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A257" s="3"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
+      <c r="C257" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D257" s="26" t="s">
+        <v>367</v>
+      </c>
       <c r="E257" s="3"/>
       <c r="F257" s="13"/>
       <c r="G257" s="27" t="s">
@@ -11682,13 +11882,16 @@
         <v>195</v>
       </c>
       <c r="O257" s="39"/>
-      <c r="P257" s="69"/>
+      <c r="P257" s="109"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A258" s="3"/>
-      <c r="B258" s="21"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
+      <c r="C258" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D258" s="26" t="s">
+        <v>368</v>
+      </c>
       <c r="E258" s="3"/>
       <c r="F258" s="13"/>
       <c r="G258" s="27" t="s">
@@ -11712,13 +11915,16 @@
         <v>196</v>
       </c>
       <c r="O258" s="39"/>
-      <c r="P258" s="69"/>
+      <c r="P258" s="109"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A259" s="3"/>
-      <c r="B259" s="21"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
+      <c r="C259" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D259" s="26" t="s">
+        <v>369</v>
+      </c>
       <c r="E259" s="3"/>
       <c r="F259" s="13"/>
       <c r="G259" s="27" t="s">
@@ -11742,13 +11948,16 @@
         <v>197</v>
       </c>
       <c r="O259" s="39"/>
-      <c r="P259" s="69"/>
+      <c r="P259" s="109"/>
     </row>
     <row r="260" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A260" s="3"/>
-      <c r="B260" s="21"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
+      <c r="C260" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D260" s="26" t="s">
+        <v>370</v>
+      </c>
       <c r="E260" s="3"/>
       <c r="F260" s="13"/>
       <c r="G260" s="27" t="s">
@@ -11772,13 +11981,16 @@
         <v>198</v>
       </c>
       <c r="O260" s="39"/>
-      <c r="P260" s="69"/>
+      <c r="P260" s="109"/>
     </row>
     <row r="261" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A261" s="3"/>
-      <c r="B261" s="21"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
+      <c r="C261" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D261" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E261" s="3"/>
       <c r="F261" s="13"/>
       <c r="G261" s="27" t="s">
@@ -11802,13 +12014,16 @@
         <v>199</v>
       </c>
       <c r="O261" s="39"/>
-      <c r="P261" s="69"/>
+      <c r="P261" s="109"/>
     </row>
     <row r="262" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A262" s="3"/>
-      <c r="B262" s="21"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
+      <c r="C262" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D262" s="26" t="s">
+        <v>372</v>
+      </c>
       <c r="E262" s="3"/>
       <c r="F262" s="13"/>
       <c r="G262" s="27" t="s">
@@ -11832,13 +12047,16 @@
         <v>200</v>
       </c>
       <c r="O262" s="39"/>
-      <c r="P262" s="69"/>
+      <c r="P262" s="109"/>
     </row>
     <row r="263" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A263" s="3"/>
-      <c r="B263" s="21"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
+      <c r="C263" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D263" s="26" t="s">
+        <v>373</v>
+      </c>
       <c r="E263" s="3"/>
       <c r="F263" s="13"/>
       <c r="G263" s="27" t="s">
@@ -11862,13 +12080,16 @@
         <v>201</v>
       </c>
       <c r="O263" s="39"/>
-      <c r="P263" s="69"/>
+      <c r="P263" s="109"/>
     </row>
     <row r="264" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A264" s="3"/>
-      <c r="B264" s="21"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
+      <c r="C264" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D264" s="26" t="s">
+        <v>326</v>
+      </c>
       <c r="E264" s="3"/>
       <c r="F264" s="13"/>
       <c r="G264" s="27" t="s">
@@ -11895,9 +12116,12 @@
     </row>
     <row r="265" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A265" s="3"/>
-      <c r="B265" s="21"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
+      <c r="C265" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D265" s="26" t="s">
+        <v>358</v>
+      </c>
       <c r="E265" s="3"/>
       <c r="F265" s="13"/>
       <c r="G265" s="27" t="s">
@@ -11924,9 +12148,12 @@
     </row>
     <row r="266" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A266" s="3"/>
-      <c r="B266" s="21"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
+      <c r="C266" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D266" s="26" t="s">
+        <v>359</v>
+      </c>
       <c r="E266" s="3"/>
       <c r="F266" s="13"/>
       <c r="G266" s="27" t="s">
@@ -11953,9 +12180,12 @@
     </row>
     <row r="267" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A267" s="3"/>
-      <c r="B267" s="21"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
+      <c r="C267" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D267" s="26" t="s">
+        <v>360</v>
+      </c>
       <c r="E267" s="3"/>
       <c r="F267" s="13"/>
       <c r="G267" s="27" t="s">
@@ -11982,9 +12212,12 @@
     </row>
     <row r="268" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A268" s="3"/>
-      <c r="B268" s="21"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
+      <c r="C268" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D268" s="26" t="s">
+        <v>357</v>
+      </c>
       <c r="E268" s="3"/>
       <c r="F268" s="13"/>
       <c r="G268" s="27" t="s">
@@ -12011,9 +12244,12 @@
     </row>
     <row r="269" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A269" s="3"/>
-      <c r="B269" s="21"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
+      <c r="C269" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D269" s="26" t="s">
+        <v>356</v>
+      </c>
       <c r="E269" s="3"/>
       <c r="F269" s="13"/>
       <c r="G269" s="27" t="s">
@@ -12037,13 +12273,16 @@
         <v>240</v>
       </c>
       <c r="O269" s="39"/>
-      <c r="P269" s="69"/>
+      <c r="P269" s="109"/>
     </row>
     <row r="270" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A270" s="3"/>
-      <c r="B270" s="21"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
+      <c r="C270" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D270" s="26" t="s">
+        <v>374</v>
+      </c>
       <c r="E270" s="3"/>
       <c r="F270" s="13"/>
       <c r="G270" s="27" t="s">
@@ -12067,13 +12306,16 @@
         <v>186</v>
       </c>
       <c r="O270" s="39"/>
-      <c r="P270" s="69"/>
+      <c r="P270" s="109"/>
     </row>
     <row r="271" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A271" s="3"/>
-      <c r="B271" s="21"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
+      <c r="C271" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D271" s="26" t="s">
+        <v>375</v>
+      </c>
       <c r="E271" s="3"/>
       <c r="F271" s="13"/>
       <c r="G271" s="27" t="s">
@@ -12097,13 +12339,16 @@
         <v>187</v>
       </c>
       <c r="O271" s="39"/>
-      <c r="P271" s="69"/>
+      <c r="P271" s="109"/>
     </row>
     <row r="272" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A272" s="3"/>
-      <c r="B272" s="21"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
+      <c r="C272" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D272" s="26" t="s">
+        <v>376</v>
+      </c>
       <c r="E272" s="3"/>
       <c r="F272" s="13"/>
       <c r="G272" s="27" t="s">
@@ -12127,13 +12372,16 @@
         <v>188</v>
       </c>
       <c r="O272" s="39"/>
-      <c r="P272" s="69"/>
+      <c r="P272" s="109"/>
     </row>
     <row r="273" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A273" s="3"/>
-      <c r="B273" s="21"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
+      <c r="C273" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D273" s="26" t="s">
+        <v>377</v>
+      </c>
       <c r="E273" s="3"/>
       <c r="F273" s="13"/>
       <c r="G273" s="27" t="s">
@@ -12157,13 +12405,16 @@
         <v>189</v>
       </c>
       <c r="O273" s="39"/>
-      <c r="P273" s="69"/>
+      <c r="P273" s="109"/>
     </row>
     <row r="274" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A274" s="3"/>
-      <c r="B274" s="21"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
+      <c r="C274" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D274" s="26" t="s">
+        <v>378</v>
+      </c>
       <c r="E274" s="3"/>
       <c r="F274" s="13"/>
       <c r="G274" s="27" t="s">
@@ -12187,13 +12438,16 @@
         <v>190</v>
       </c>
       <c r="O274" s="39"/>
-      <c r="P274" s="69"/>
+      <c r="P274" s="109"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A275" s="3"/>
-      <c r="B275" s="21"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
+      <c r="C275" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D275" s="26" t="s">
+        <v>379</v>
+      </c>
       <c r="E275" s="3"/>
       <c r="F275" s="13"/>
       <c r="G275" s="27" t="s">
@@ -12217,13 +12471,16 @@
         <v>191</v>
       </c>
       <c r="O275" s="39"/>
-      <c r="P275" s="69"/>
+      <c r="P275" s="109"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A276" s="3"/>
-      <c r="B276" s="21"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
+      <c r="C276" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D276" s="26" t="s">
+        <v>380</v>
+      </c>
       <c r="E276" s="3"/>
       <c r="F276" s="13"/>
       <c r="G276" s="27" t="s">
@@ -12247,13 +12504,16 @@
         <v>192</v>
       </c>
       <c r="O276" s="39"/>
-      <c r="P276" s="69"/>
+      <c r="P276" s="109"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A277" s="3"/>
-      <c r="B277" s="21"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
+      <c r="C277" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D277" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="E277" s="3"/>
       <c r="F277" s="13"/>
       <c r="G277" s="27" t="s">
@@ -12277,13 +12537,16 @@
         <v>193</v>
       </c>
       <c r="O277" s="39"/>
-      <c r="P277" s="69"/>
+      <c r="P277" s="109"/>
     </row>
     <row r="278" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A278" s="3"/>
-      <c r="B278" s="21"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
+      <c r="C278" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D278" s="26" t="s">
+        <v>339</v>
+      </c>
       <c r="E278" s="3"/>
       <c r="F278" s="13"/>
       <c r="G278" s="27" t="s">
@@ -12310,9 +12573,12 @@
     </row>
     <row r="279" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A279" s="3"/>
-      <c r="B279" s="21"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
+      <c r="C279" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D279" s="26" t="s">
+        <v>340</v>
+      </c>
       <c r="E279" s="3"/>
       <c r="F279" s="13"/>
       <c r="G279" s="27" t="s">
@@ -12339,9 +12605,12 @@
     </row>
     <row r="280" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A280" s="3"/>
-      <c r="B280" s="21"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
+      <c r="C280" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D280" s="26" t="s">
+        <v>341</v>
+      </c>
       <c r="E280" s="3"/>
       <c r="F280" s="13"/>
       <c r="G280" s="27" t="s">
@@ -12368,9 +12637,12 @@
     </row>
     <row r="281" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A281" s="3"/>
-      <c r="B281" s="21"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
+      <c r="C281" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D281" s="26" t="s">
+        <v>342</v>
+      </c>
       <c r="E281" s="3"/>
       <c r="F281" s="13"/>
       <c r="G281" s="27" t="s">
@@ -12397,9 +12669,12 @@
     </row>
     <row r="282" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A282" s="3"/>
-      <c r="B282" s="21"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
+      <c r="C282" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D282" s="26" t="s">
+        <v>327</v>
+      </c>
       <c r="E282" s="3"/>
       <c r="F282" s="13"/>
       <c r="G282" s="27" t="s">
@@ -12426,9 +12701,12 @@
     </row>
     <row r="283" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A283" s="3"/>
-      <c r="B283" s="21"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
+      <c r="C283" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D283" s="26" t="s">
+        <v>343</v>
+      </c>
       <c r="E283" s="3"/>
       <c r="F283" s="13"/>
       <c r="G283" s="27" t="s">
@@ -12452,13 +12730,16 @@
         <v>177</v>
       </c>
       <c r="O283" s="39"/>
-      <c r="P283" s="69"/>
+      <c r="P283" s="109"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A284" s="3"/>
-      <c r="B284" s="21"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
+      <c r="C284" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D284" s="26" t="s">
+        <v>344</v>
+      </c>
       <c r="E284" s="3"/>
       <c r="F284" s="13"/>
       <c r="G284" s="27" t="s">
@@ -12482,13 +12763,16 @@
         <v>178</v>
       </c>
       <c r="O284" s="39"/>
-      <c r="P284" s="69"/>
+      <c r="P284" s="109"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A285" s="3"/>
-      <c r="B285" s="21"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
+      <c r="C285" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D285" s="26" t="s">
+        <v>345</v>
+      </c>
       <c r="E285" s="3"/>
       <c r="F285" s="13"/>
       <c r="G285" s="27" t="s">
@@ -12512,13 +12796,16 @@
         <v>427</v>
       </c>
       <c r="O285" s="39"/>
-      <c r="P285" s="69"/>
+      <c r="P285" s="109"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A286" s="3"/>
-      <c r="B286" s="21"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
+      <c r="C286" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D286" s="26" t="s">
+        <v>346</v>
+      </c>
       <c r="E286" s="3"/>
       <c r="F286" s="13"/>
       <c r="G286" s="27" t="s">
@@ -12542,13 +12829,16 @@
         <v>180</v>
       </c>
       <c r="O286" s="39"/>
-      <c r="P286" s="69"/>
+      <c r="P286" s="109"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
-      <c r="B287" s="21"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
+      <c r="C287" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D287" s="26" t="s">
+        <v>347</v>
+      </c>
       <c r="E287" s="3"/>
       <c r="F287" s="13"/>
       <c r="G287" s="27" t="s">
@@ -12572,13 +12862,16 @@
         <v>428</v>
       </c>
       <c r="O287" s="39"/>
-      <c r="P287" s="69"/>
+      <c r="P287" s="109"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A288" s="3"/>
-      <c r="B288" s="21"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
+      <c r="C288" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D288" s="26" t="s">
+        <v>348</v>
+      </c>
       <c r="E288" s="3"/>
       <c r="F288" s="13"/>
       <c r="G288" s="27" t="s">
@@ -12602,13 +12895,16 @@
         <v>182</v>
       </c>
       <c r="O288" s="39"/>
-      <c r="P288" s="69"/>
+      <c r="P288" s="109"/>
     </row>
     <row r="289" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A289" s="3"/>
-      <c r="B289" s="21"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
+      <c r="C289" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D289" s="26" t="s">
+        <v>349</v>
+      </c>
       <c r="E289" s="3"/>
       <c r="F289" s="13"/>
       <c r="G289" s="27" t="s">
@@ -12632,13 +12928,16 @@
         <v>429</v>
       </c>
       <c r="O289" s="39"/>
-      <c r="P289" s="69"/>
+      <c r="P289" s="109"/>
     </row>
     <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A290" s="3"/>
-      <c r="B290" s="21"/>
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
+      <c r="C290" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D290" s="26" t="s">
+        <v>350</v>
+      </c>
       <c r="E290" s="3"/>
       <c r="F290" s="13"/>
       <c r="G290" s="27" t="s">
@@ -12662,13 +12961,16 @@
         <v>184</v>
       </c>
       <c r="O290" s="39"/>
-      <c r="P290" s="69"/>
+      <c r="P290" s="109"/>
     </row>
     <row r="291" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A291" s="3"/>
-      <c r="B291" s="21"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
+      <c r="C291" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D291" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E291" s="3"/>
       <c r="F291" s="13"/>
       <c r="G291" s="27" t="s">
@@ -12692,13 +12994,16 @@
         <v>430</v>
       </c>
       <c r="O291" s="39"/>
-      <c r="P291" s="69"/>
+      <c r="P291" s="109"/>
     </row>
     <row r="292" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A292" s="3"/>
-      <c r="B292" s="21"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
+      <c r="C292" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D292" s="26" t="s">
+        <v>337</v>
+      </c>
       <c r="E292" s="3"/>
       <c r="F292" s="13"/>
       <c r="G292" s="27" t="s">
@@ -12725,9 +13030,12 @@
     </row>
     <row r="293" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A293" s="3"/>
-      <c r="B293" s="21"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
+      <c r="C293" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D293" s="26" t="s">
+        <v>353</v>
+      </c>
       <c r="E293" s="3"/>
       <c r="F293" s="13"/>
       <c r="G293" s="27" t="s">
@@ -12754,9 +13062,12 @@
     </row>
     <row r="294" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A294" s="3"/>
-      <c r="B294" s="21"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
+      <c r="C294" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D294" s="26" t="s">
+        <v>354</v>
+      </c>
       <c r="E294" s="3"/>
       <c r="F294" s="13"/>
       <c r="G294" s="27" t="s">
@@ -12783,9 +13094,12 @@
     </row>
     <row r="295" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A295" s="3"/>
-      <c r="B295" s="21"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
+      <c r="C295" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D295" s="26" t="s">
+        <v>355</v>
+      </c>
       <c r="E295" s="3"/>
       <c r="F295" s="13"/>
       <c r="G295" s="27" t="s">
@@ -12812,9 +13126,12 @@
     </row>
     <row r="296" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A296" s="3"/>
-      <c r="B296" s="21"/>
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
+      <c r="C296" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D296" s="26" t="s">
+        <v>338</v>
+      </c>
       <c r="E296" s="3"/>
       <c r="F296" s="13"/>
       <c r="G296" s="27" t="s">
@@ -12841,9 +13158,12 @@
     </row>
     <row r="297" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A297" s="3"/>
-      <c r="B297" s="21"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
+      <c r="C297" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D297" s="26" t="s">
+        <v>352</v>
+      </c>
       <c r="E297" s="3"/>
       <c r="F297" s="13"/>
       <c r="G297" s="27" t="s">
@@ -12867,13 +13187,16 @@
         <v>431</v>
       </c>
       <c r="O297" s="39"/>
-      <c r="P297" s="69"/>
+      <c r="P297" s="109"/>
     </row>
     <row r="298" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A298" s="3"/>
-      <c r="B298" s="21"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
+      <c r="C298" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D298" s="26" t="s">
+        <v>329</v>
+      </c>
       <c r="E298" s="3"/>
       <c r="F298" s="13"/>
       <c r="G298" s="27" t="s">
@@ -12897,13 +13220,16 @@
         <v>432</v>
       </c>
       <c r="O298" s="39"/>
-      <c r="P298" s="69"/>
+      <c r="P298" s="109"/>
     </row>
     <row r="299" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A299" s="3"/>
-      <c r="B299" s="21"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
+      <c r="C299" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D299" s="26" t="s">
+        <v>330</v>
+      </c>
       <c r="E299" s="3"/>
       <c r="F299" s="13"/>
       <c r="G299" s="27" t="s">
@@ -12927,13 +13253,16 @@
         <v>433</v>
       </c>
       <c r="O299" s="39"/>
-      <c r="P299" s="69"/>
+      <c r="P299" s="109"/>
     </row>
     <row r="300" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A300" s="3"/>
-      <c r="B300" s="21"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
+      <c r="C300" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D300" s="26" t="s">
+        <v>331</v>
+      </c>
       <c r="E300" s="3"/>
       <c r="F300" s="13"/>
       <c r="G300" s="27" t="s">
@@ -12957,13 +13286,16 @@
         <v>434</v>
       </c>
       <c r="O300" s="39"/>
-      <c r="P300" s="69"/>
+      <c r="P300" s="109"/>
     </row>
     <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A301" s="3"/>
-      <c r="B301" s="21"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
+      <c r="C301" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D301" s="26" t="s">
+        <v>332</v>
+      </c>
       <c r="E301" s="3"/>
       <c r="F301" s="13"/>
       <c r="G301" s="27" t="s">
@@ -12987,13 +13319,16 @@
         <v>435</v>
       </c>
       <c r="O301" s="39"/>
-      <c r="P301" s="69"/>
+      <c r="P301" s="109"/>
     </row>
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A302" s="3"/>
-      <c r="B302" s="21"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
+      <c r="C302" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D302" s="26" t="s">
+        <v>333</v>
+      </c>
       <c r="E302" s="3"/>
       <c r="F302" s="13"/>
       <c r="G302" s="27" t="s">
@@ -13017,13 +13352,16 @@
         <v>436</v>
       </c>
       <c r="O302" s="39"/>
-      <c r="P302" s="69"/>
+      <c r="P302" s="109"/>
     </row>
     <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A303" s="3"/>
-      <c r="B303" s="21"/>
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
+      <c r="C303" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D303" s="26" t="s">
+        <v>334</v>
+      </c>
       <c r="E303" s="3"/>
       <c r="F303" s="13"/>
       <c r="G303" s="27" t="s">
@@ -13047,13 +13385,16 @@
         <v>437</v>
       </c>
       <c r="O303" s="39"/>
-      <c r="P303" s="69"/>
+      <c r="P303" s="109"/>
     </row>
     <row r="304" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A304" s="3"/>
-      <c r="B304" s="21"/>
-      <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
+      <c r="C304" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D304" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="E304" s="3"/>
       <c r="F304" s="13"/>
       <c r="G304" s="27" t="s">
@@ -13077,13 +13418,16 @@
         <v>438</v>
       </c>
       <c r="O304" s="39"/>
-      <c r="P304" s="69"/>
+      <c r="P304" s="109"/>
     </row>
     <row r="305" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A305" s="3"/>
-      <c r="B305" s="21"/>
-      <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
+      <c r="C305" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D305" s="26" t="s">
+        <v>336</v>
+      </c>
       <c r="E305" s="3"/>
       <c r="F305" s="13"/>
       <c r="G305" s="27" t="s">
@@ -13107,13 +13451,16 @@
         <v>439</v>
       </c>
       <c r="O305" s="39"/>
-      <c r="P305" s="69"/>
+      <c r="P305" s="109"/>
     </row>
     <row r="306" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A306" s="3"/>
-      <c r="B306" s="21"/>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
+      <c r="C306" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="E306" s="3"/>
       <c r="F306" s="13"/>
       <c r="G306" s="27" t="s">
@@ -13140,9 +13487,12 @@
     </row>
     <row r="307" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A307" s="3"/>
-      <c r="B307" s="21"/>
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
+      <c r="C307" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D307" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="E307" s="3"/>
       <c r="F307" s="13"/>
       <c r="G307" s="27" t="s">
@@ -13169,9 +13519,12 @@
     </row>
     <row r="308" spans="1:16" ht="60" x14ac:dyDescent="0.35">
       <c r="A308" s="3"/>
-      <c r="B308" s="21"/>
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
+      <c r="C308" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D308" s="26" t="s">
+        <v>82</v>
+      </c>
       <c r="E308" s="3"/>
       <c r="F308" s="13"/>
       <c r="G308" s="27" t="s">
@@ -13198,234 +13551,222 @@
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" s="3"/>
-      <c r="B309" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
+      <c r="C309" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D309" s="27" t="s">
+        <v>518</v>
+      </c>
       <c r="E309" s="3"/>
       <c r="F309" s="13"/>
+      <c r="H309" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="I309" s="103" t="s">
+        <v>521</v>
+      </c>
       <c r="J309" s="3"/>
       <c r="K309" s="13"/>
-      <c r="L309" s="10"/>
-      <c r="M309" s="39"/>
-      <c r="N309" s="11"/>
+      <c r="L309" s="34"/>
+      <c r="M309" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="N309" s="103" t="s">
+        <v>521</v>
+      </c>
       <c r="O309" s="39"/>
     </row>
-    <row r="310" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
-      <c r="A310" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B310" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C310" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D310" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E310" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F310" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G310" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H310" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I310" s="32"/>
-      <c r="J310" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K310" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L310" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="M310" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="N310" s="59"/>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A310" s="3"/>
+      <c r="C310" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="D310" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="E310" s="3"/>
+      <c r="F310" s="13"/>
+      <c r="H310" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="I310" s="103" t="s">
+        <v>522</v>
+      </c>
+      <c r="J310" s="3"/>
+      <c r="K310" s="13"/>
+      <c r="L310" s="34"/>
+      <c r="M310" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="N310" s="103" t="s">
+        <v>522</v>
+      </c>
       <c r="O310" s="39"/>
     </row>
-    <row r="311" spans="1:16" ht="48" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" s="3"/>
-      <c r="B311" s="21"/>
-      <c r="C311" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>503</v>
-      </c>
+      <c r="B311" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
       <c r="E311" s="3"/>
       <c r="F311" s="13"/>
-      <c r="G311" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H311" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="I311" s="56" t="s">
-        <v>426</v>
-      </c>
       <c r="J311" s="3"/>
       <c r="K311" s="13"/>
-      <c r="L311" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="M311" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="N311" s="56" t="s">
-        <v>426</v>
-      </c>
+      <c r="L311" s="10"/>
+      <c r="M311" s="39"/>
+      <c r="N311" s="11"/>
       <c r="O311" s="39"/>
     </row>
-    <row r="312" spans="1:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="A312" s="3"/>
-      <c r="B312" s="21"/>
-      <c r="C312" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E312" s="3"/>
-      <c r="F312" s="13"/>
-      <c r="G312" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="H312" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="I312" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="J312" s="3"/>
-      <c r="K312" s="13"/>
-      <c r="L312" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="M312" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="N312" s="56" t="s">
-        <v>152</v>
-      </c>
+    <row r="312" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A312" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B312" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C312" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D312" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E312" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F312" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G312" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H312" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I312" s="32"/>
+      <c r="J312" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K312" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L312" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="M312" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="N312" s="59"/>
       <c r="O312" s="39"/>
     </row>
     <row r="313" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A313" s="3"/>
       <c r="B313" s="21"/>
       <c r="C313" s="1" t="s">
-        <v>270</v>
+        <v>57</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E313" s="3"/>
       <c r="F313" s="13"/>
       <c r="G313" s="27" t="s">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="H313" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="I313" s="31" t="s">
-        <v>153</v>
+        <v>503</v>
+      </c>
+      <c r="I313" s="56" t="s">
+        <v>426</v>
       </c>
       <c r="J313" s="3"/>
       <c r="K313" s="13"/>
       <c r="L313" s="34" t="s">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="M313" s="67" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="N313" s="56" t="s">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="O313" s="39"/>
     </row>
-    <row r="314" spans="1:16" ht="48" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A314" s="3"/>
       <c r="B314" s="21"/>
       <c r="C314" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>11</v>
+        <v>504</v>
       </c>
       <c r="E314" s="3"/>
       <c r="F314" s="13"/>
       <c r="G314" s="27" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="H314" s="26" t="s">
-        <v>11</v>
+        <v>504</v>
       </c>
       <c r="I314" s="31" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="J314" s="3"/>
       <c r="K314" s="13"/>
       <c r="L314" s="34" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="M314" s="67" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="N314" s="56" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="O314" s="39"/>
     </row>
-    <row r="315" spans="1:16" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A315" s="3"/>
       <c r="B315" s="21"/>
       <c r="C315" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>10</v>
+        <v>510</v>
       </c>
       <c r="E315" s="3"/>
       <c r="F315" s="13"/>
       <c r="G315" s="27" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="H315" s="26" t="s">
-        <v>10</v>
+        <v>505</v>
       </c>
       <c r="I315" s="31" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="J315" s="3"/>
       <c r="K315" s="13"/>
       <c r="L315" s="34" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="M315" s="67" t="s">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="N315" s="56" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="O315" s="39"/>
     </row>
-    <row r="316" spans="1:16" ht="60" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A316" s="3"/>
       <c r="B316" s="21"/>
       <c r="C316" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E316" s="3"/>
       <c r="F316" s="13"/>
@@ -13433,10 +13774,10 @@
         <v>11</v>
       </c>
       <c r="H316" s="26" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I316" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J316" s="3"/>
       <c r="K316" s="13"/>
@@ -13444,176 +13785,178 @@
         <v>11</v>
       </c>
       <c r="M316" s="67" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="N316" s="56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O316" s="39"/>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3"/>
       <c r="B317" s="21"/>
-      <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
+      <c r="C317" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E317" s="3"/>
       <c r="F317" s="13"/>
-      <c r="I317" s="31"/>
+      <c r="G317" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H317" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I317" s="31" t="s">
+        <v>170</v>
+      </c>
       <c r="J317" s="3"/>
       <c r="K317" s="13"/>
-      <c r="L317" s="10"/>
-      <c r="M317" s="39"/>
-      <c r="N317" s="56"/>
+      <c r="L317" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M317" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="N317" s="56" t="s">
+        <v>170</v>
+      </c>
       <c r="O317" s="39"/>
     </row>
-    <row r="318" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
-      <c r="A318" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B318" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C318" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D318" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E318" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F318" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G318" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H318" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I318" s="32"/>
-      <c r="J318" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K318" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="L318" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="M318" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="N318" s="59"/>
+    <row r="318" spans="1:16" ht="60" x14ac:dyDescent="0.35">
+      <c r="A318" s="3"/>
+      <c r="B318" s="21"/>
+      <c r="C318" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E318" s="3"/>
+      <c r="F318" s="13"/>
+      <c r="G318" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H318" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I318" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J318" s="3"/>
+      <c r="K318" s="13"/>
+      <c r="L318" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M318" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="N318" s="56" t="s">
+        <v>171</v>
+      </c>
       <c r="O318" s="39"/>
     </row>
-    <row r="319" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" s="3"/>
-      <c r="B319" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B319" s="21"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
       <c r="E319" s="3"/>
-      <c r="F319" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G319" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H319" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="F319" s="13"/>
       <c r="I319" s="31"/>
       <c r="J319" s="3"/>
-      <c r="K319" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L319" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="M319" s="67" t="s">
-        <v>69</v>
-      </c>
+      <c r="K319" s="13"/>
+      <c r="L319" s="10"/>
+      <c r="M319" s="39"/>
       <c r="N319" s="56"/>
       <c r="O319" s="39"/>
     </row>
-    <row r="320" spans="1:16" ht="24" x14ac:dyDescent="0.35">
-      <c r="A320" s="3"/>
-      <c r="B320" s="21"/>
-      <c r="C320" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E320" s="3"/>
-      <c r="F320" s="13"/>
-      <c r="G320" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="H320" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="I320" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="J320" s="3"/>
-      <c r="K320" s="13"/>
-      <c r="L320" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="M320" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="N320" s="56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A320" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B320" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D320" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E320" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F320" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G320" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H320" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I320" s="32"/>
+      <c r="J320" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K320" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="L320" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="M320" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="N320" s="59"/>
+      <c r="O320" s="39"/>
+    </row>
+    <row r="321" spans="1:15" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A321" s="3"/>
-      <c r="B321" s="21"/>
+      <c r="B321" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="C321" s="1" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>500</v>
+        <v>69</v>
       </c>
       <c r="E321" s="3"/>
-      <c r="F321" s="13"/>
+      <c r="F321" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="G321" s="27" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="H321" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="I321" s="31" t="s">
-        <v>228</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I321" s="31"/>
       <c r="J321" s="3"/>
-      <c r="K321" s="13"/>
+      <c r="K321" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="L321" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="M321" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="N321" s="56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="M321" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="N321" s="56"/>
+      <c r="O321" s="39"/>
+    </row>
+    <row r="322" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A322" s="3"/>
       <c r="B322" s="21"/>
       <c r="C322" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E322" s="3"/>
       <c r="F322" s="13"/>
@@ -13621,10 +13964,10 @@
         <v>270</v>
       </c>
       <c r="H322" s="26" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I322" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J322" s="3"/>
       <c r="K322" s="13"/>
@@ -13632,20 +13975,20 @@
         <v>270</v>
       </c>
       <c r="M322" s="29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N322" s="56" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A323" s="3"/>
       <c r="B323" s="21"/>
       <c r="C323" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E323" s="3"/>
       <c r="F323" s="13"/>
@@ -13653,10 +13996,10 @@
         <v>270</v>
       </c>
       <c r="H323" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I323" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J323" s="3"/>
       <c r="K323" s="13"/>
@@ -13664,20 +14007,20 @@
         <v>270</v>
       </c>
       <c r="M323" s="29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N323" s="56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A324" s="3"/>
       <c r="B324" s="21"/>
       <c r="C324" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E324" s="3"/>
       <c r="F324" s="13"/>
@@ -13685,10 +14028,10 @@
         <v>270</v>
       </c>
       <c r="H324" s="26" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I324" s="31" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="J324" s="3"/>
       <c r="K324" s="13"/>
@@ -13696,20 +14039,20 @@
         <v>270</v>
       </c>
       <c r="M324" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N324" s="56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A325" s="3"/>
       <c r="B325" s="21"/>
       <c r="C325" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E325" s="3"/>
       <c r="F325" s="13"/>
@@ -13717,10 +14060,10 @@
         <v>270</v>
       </c>
       <c r="H325" s="26" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I325" s="31" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="J325" s="3"/>
       <c r="K325" s="13"/>
@@ -13728,20 +14071,20 @@
         <v>270</v>
       </c>
       <c r="M325" s="29" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="N325" s="56" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A326" s="3"/>
       <c r="B326" s="21"/>
       <c r="C326" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="E326" s="3"/>
       <c r="F326" s="13"/>
@@ -13749,10 +14092,10 @@
         <v>270</v>
       </c>
       <c r="H326" s="26" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="I326" s="31" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="J326" s="3"/>
       <c r="K326" s="13"/>
@@ -13760,20 +14103,20 @@
         <v>270</v>
       </c>
       <c r="M326" s="29" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="N326" s="56" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A327" s="3"/>
       <c r="B327" s="21"/>
       <c r="C327" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E327" s="3"/>
       <c r="F327" s="13"/>
@@ -13781,10 +14124,10 @@
         <v>270</v>
       </c>
       <c r="H327" s="26" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I327" s="31" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="J327" s="3"/>
       <c r="K327" s="13"/>
@@ -13792,20 +14135,20 @@
         <v>270</v>
       </c>
       <c r="M327" s="29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N327" s="56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A328" s="3"/>
       <c r="B328" s="21"/>
       <c r="C328" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E328" s="3"/>
       <c r="F328" s="13"/>
@@ -13813,10 +14156,10 @@
         <v>270</v>
       </c>
       <c r="H328" s="26" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I328" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J328" s="3"/>
       <c r="K328" s="13"/>
@@ -13824,20 +14167,20 @@
         <v>270</v>
       </c>
       <c r="M328" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N328" s="56" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A329" s="3"/>
       <c r="B329" s="21"/>
       <c r="C329" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E329" s="3"/>
       <c r="F329" s="13"/>
@@ -13845,10 +14188,10 @@
         <v>270</v>
       </c>
       <c r="H329" s="26" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="I329" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J329" s="3"/>
       <c r="K329" s="13"/>
@@ -13856,20 +14199,20 @@
         <v>270</v>
       </c>
       <c r="M329" s="29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N329" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A330" s="3"/>
       <c r="B330" s="21"/>
       <c r="C330" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E330" s="3"/>
       <c r="F330" s="13"/>
@@ -13877,10 +14220,10 @@
         <v>270</v>
       </c>
       <c r="H330" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I330" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J330" s="3"/>
       <c r="K330" s="13"/>
@@ -13888,20 +14231,20 @@
         <v>270</v>
       </c>
       <c r="M330" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N330" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A331" s="3"/>
       <c r="B331" s="21"/>
       <c r="C331" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E331" s="3"/>
       <c r="F331" s="13"/>
@@ -13909,10 +14252,10 @@
         <v>270</v>
       </c>
       <c r="H331" s="26" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I331" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J331" s="3"/>
       <c r="K331" s="13"/>
@@ -13920,20 +14263,20 @@
         <v>270</v>
       </c>
       <c r="M331" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N331" s="56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="332" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A332" s="3"/>
       <c r="B332" s="21"/>
       <c r="C332" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E332" s="3"/>
       <c r="F332" s="13"/>
@@ -13941,10 +14284,10 @@
         <v>270</v>
       </c>
       <c r="H332" s="26" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I332" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J332" s="3"/>
       <c r="K332" s="13"/>
@@ -13952,20 +14295,20 @@
         <v>270</v>
       </c>
       <c r="M332" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N332" s="56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A333" s="3"/>
       <c r="B333" s="21"/>
       <c r="C333" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E333" s="3"/>
       <c r="F333" s="13"/>
@@ -13973,10 +14316,10 @@
         <v>270</v>
       </c>
       <c r="H333" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I333" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J333" s="3"/>
       <c r="K333" s="13"/>
@@ -13984,52 +14327,52 @@
         <v>270</v>
       </c>
       <c r="M333" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N333" s="56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14" ht="36" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A334" s="3"/>
       <c r="B334" s="21"/>
       <c r="C334" s="1" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>18</v>
+        <v>514</v>
       </c>
       <c r="E334" s="3"/>
       <c r="F334" s="13"/>
       <c r="G334" s="27" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="H334" s="26" t="s">
-        <v>18</v>
+        <v>514</v>
       </c>
       <c r="I334" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J334" s="3"/>
       <c r="K334" s="13"/>
       <c r="L334" s="34" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="M334" s="29" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="N334" s="56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14" ht="108" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A335" s="3"/>
       <c r="B335" s="21"/>
       <c r="C335" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>19</v>
+        <v>515</v>
       </c>
       <c r="E335" s="3"/>
       <c r="F335" s="13"/>
@@ -14037,10 +14380,10 @@
         <v>270</v>
       </c>
       <c r="H335" s="26" t="s">
-        <v>19</v>
+        <v>515</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="J335" s="3"/>
       <c r="K335" s="13"/>
@@ -14048,52 +14391,52 @@
         <v>270</v>
       </c>
       <c r="M335" s="29" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="N335" s="56" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="336" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A336" s="3"/>
       <c r="B336" s="21"/>
       <c r="C336" s="1" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>337</v>
+        <v>18</v>
       </c>
       <c r="E336" s="3"/>
       <c r="F336" s="13"/>
       <c r="G336" s="27" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="H336" s="26" t="s">
-        <v>396</v>
+        <v>18</v>
       </c>
       <c r="I336" s="31" t="s">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="J336" s="3"/>
       <c r="K336" s="13"/>
       <c r="L336" s="34" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="M336" s="29" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="N336" s="56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="108" x14ac:dyDescent="0.35">
       <c r="A337" s="3"/>
       <c r="B337" s="21"/>
       <c r="C337" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>353</v>
+        <v>19</v>
       </c>
       <c r="E337" s="3"/>
       <c r="F337" s="13"/>
@@ -14101,10 +14444,10 @@
         <v>270</v>
       </c>
       <c r="H337" s="26" t="s">
-        <v>397</v>
+        <v>19</v>
       </c>
       <c r="I337" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J337" s="3"/>
       <c r="K337" s="13"/>
@@ -14112,10 +14455,10 @@
         <v>270</v>
       </c>
       <c r="M337" s="29" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="N337" s="56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="338" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14125,7 +14468,7 @@
         <v>270</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="E338" s="3"/>
       <c r="F338" s="13"/>
@@ -14133,10 +14476,10 @@
         <v>270</v>
       </c>
       <c r="H338" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I338" s="31" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="J338" s="3"/>
       <c r="K338" s="13"/>
@@ -14144,10 +14487,10 @@
         <v>270</v>
       </c>
       <c r="M338" s="29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N338" s="56" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="339" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14157,7 +14500,7 @@
         <v>270</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E339" s="3"/>
       <c r="F339" s="13"/>
@@ -14165,10 +14508,10 @@
         <v>270</v>
       </c>
       <c r="H339" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I339" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J339" s="3"/>
       <c r="K339" s="13"/>
@@ -14176,20 +14519,20 @@
         <v>270</v>
       </c>
       <c r="M339" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N339" s="56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14" ht="48" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A340" s="3"/>
       <c r="B340" s="21"/>
       <c r="C340" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="E340" s="3"/>
       <c r="F340" s="13"/>
@@ -14197,10 +14540,10 @@
         <v>270</v>
       </c>
       <c r="H340" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I340" s="31" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="J340" s="3"/>
       <c r="K340" s="13"/>
@@ -14208,10 +14551,10 @@
         <v>270</v>
       </c>
       <c r="M340" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N340" s="56" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="341" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14221,7 +14564,7 @@
         <v>270</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="E341" s="3"/>
       <c r="F341" s="13"/>
@@ -14229,10 +14572,10 @@
         <v>270</v>
       </c>
       <c r="H341" s="26" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="I341" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J341" s="3"/>
       <c r="K341" s="13"/>
@@ -14240,20 +14583,20 @@
         <v>270</v>
       </c>
       <c r="M341" s="29" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="N341" s="56" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="48" x14ac:dyDescent="0.35">
       <c r="A342" s="3"/>
       <c r="B342" s="21"/>
       <c r="C342" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E342" s="3"/>
       <c r="F342" s="13"/>
@@ -14261,10 +14604,10 @@
         <v>270</v>
       </c>
       <c r="H342" s="26" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="I342" s="31" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="J342" s="3"/>
       <c r="K342" s="13"/>
@@ -14272,10 +14615,10 @@
         <v>270</v>
       </c>
       <c r="M342" s="29" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="N342" s="56" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="343" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14285,7 +14628,7 @@
         <v>270</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E343" s="3"/>
       <c r="F343" s="13"/>
@@ -14293,10 +14636,10 @@
         <v>270</v>
       </c>
       <c r="H343" s="26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I343" s="31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J343" s="3"/>
       <c r="K343" s="13"/>
@@ -14304,10 +14647,10 @@
         <v>270</v>
       </c>
       <c r="M343" s="29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N343" s="56" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="344" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14317,7 +14660,7 @@
         <v>270</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E344" s="3"/>
       <c r="F344" s="13"/>
@@ -14325,10 +14668,10 @@
         <v>270</v>
       </c>
       <c r="H344" s="26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I344" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J344" s="3"/>
       <c r="K344" s="13"/>
@@ -14336,20 +14679,20 @@
         <v>270</v>
       </c>
       <c r="M344" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N344" s="56" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14" ht="48" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A345" s="3"/>
       <c r="B345" s="21"/>
       <c r="C345" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E345" s="3"/>
       <c r="F345" s="13"/>
@@ -14357,10 +14700,10 @@
         <v>270</v>
       </c>
       <c r="H345" s="26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I345" s="31" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="J345" s="3"/>
       <c r="K345" s="13"/>
@@ -14368,10 +14711,10 @@
         <v>270</v>
       </c>
       <c r="M345" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N345" s="56" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="346" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14381,7 +14724,7 @@
         <v>270</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="E346" s="3"/>
       <c r="F346" s="13"/>
@@ -14389,10 +14732,10 @@
         <v>270</v>
       </c>
       <c r="H346" s="26" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="I346" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J346" s="3"/>
       <c r="K346" s="13"/>
@@ -14400,20 +14743,20 @@
         <v>270</v>
       </c>
       <c r="M346" s="29" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="N346" s="56" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="347" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="48" x14ac:dyDescent="0.35">
       <c r="A347" s="3"/>
       <c r="B347" s="21"/>
       <c r="C347" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="E347" s="3"/>
       <c r="F347" s="13"/>
@@ -14421,10 +14764,10 @@
         <v>270</v>
       </c>
       <c r="H347" s="26" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="I347" s="31" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="J347" s="3"/>
       <c r="K347" s="13"/>
@@ -14432,10 +14775,10 @@
         <v>270</v>
       </c>
       <c r="M347" s="29" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="N347" s="56" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="348" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14445,7 +14788,7 @@
         <v>270</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="E348" s="3"/>
       <c r="F348" s="13"/>
@@ -14453,10 +14796,10 @@
         <v>270</v>
       </c>
       <c r="H348" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I348" s="31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J348" s="3"/>
       <c r="K348" s="13"/>
@@ -14464,10 +14807,10 @@
         <v>270</v>
       </c>
       <c r="M348" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N348" s="56" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="349" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14477,7 +14820,7 @@
         <v>270</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E349" s="3"/>
       <c r="F349" s="13"/>
@@ -14485,10 +14828,10 @@
         <v>270</v>
       </c>
       <c r="H349" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I349" s="31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J349" s="3"/>
       <c r="K349" s="13"/>
@@ -14496,20 +14839,20 @@
         <v>270</v>
       </c>
       <c r="M349" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N349" s="56" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" ht="48" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A350" s="3"/>
       <c r="B350" s="21"/>
       <c r="C350" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E350" s="3"/>
       <c r="F350" s="13"/>
@@ -14517,10 +14860,10 @@
         <v>270</v>
       </c>
       <c r="H350" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I350" s="31" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="J350" s="3"/>
       <c r="K350" s="13"/>
@@ -14528,20 +14871,20 @@
         <v>270</v>
       </c>
       <c r="M350" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N350" s="56" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A351" s="3"/>
       <c r="B351" s="21"/>
       <c r="C351" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E351" s="3"/>
       <c r="F351" s="13"/>
@@ -14549,10 +14892,10 @@
         <v>270</v>
       </c>
       <c r="H351" s="26" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="I351" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J351" s="3"/>
       <c r="K351" s="13"/>
@@ -14560,20 +14903,20 @@
         <v>270</v>
       </c>
       <c r="M351" s="29" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="N351" s="56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="352" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="48" x14ac:dyDescent="0.35">
       <c r="A352" s="3"/>
       <c r="B352" s="21"/>
       <c r="C352" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E352" s="3"/>
       <c r="F352" s="13"/>
@@ -14581,10 +14924,10 @@
         <v>270</v>
       </c>
       <c r="H352" s="26" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I352" s="31" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="J352" s="3"/>
       <c r="K352" s="13"/>
@@ -14592,20 +14935,20 @@
         <v>270</v>
       </c>
       <c r="M352" s="29" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N352" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="353" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="3"/>
       <c r="B353" s="21"/>
       <c r="C353" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E353" s="3"/>
       <c r="F353" s="13"/>
@@ -14613,10 +14956,10 @@
         <v>270</v>
       </c>
       <c r="H353" s="26" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="I353" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J353" s="3"/>
       <c r="K353" s="13"/>
@@ -14624,20 +14967,20 @@
         <v>270</v>
       </c>
       <c r="M353" s="29" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="N353" s="56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="354" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="3"/>
       <c r="B354" s="21"/>
       <c r="C354" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E354" s="3"/>
       <c r="F354" s="13"/>
@@ -14645,10 +14988,10 @@
         <v>270</v>
       </c>
       <c r="H354" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I354" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J354" s="3"/>
       <c r="K354" s="13"/>
@@ -14656,20 +14999,20 @@
         <v>270</v>
       </c>
       <c r="M354" s="29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N354" s="56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="355" spans="1:14" ht="48" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="3"/>
       <c r="B355" s="21"/>
       <c r="C355" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E355" s="3"/>
       <c r="F355" s="13"/>
@@ -14677,10 +15020,10 @@
         <v>270</v>
       </c>
       <c r="H355" s="26" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I355" s="31" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="J355" s="3"/>
       <c r="K355" s="13"/>
@@ -14688,20 +15031,20 @@
         <v>270</v>
       </c>
       <c r="M355" s="29" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N355" s="56" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="3"/>
       <c r="B356" s="21"/>
       <c r="C356" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E356" s="3"/>
       <c r="F356" s="13"/>
@@ -14709,10 +15052,10 @@
         <v>270</v>
       </c>
       <c r="H356" s="26" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="I356" s="31" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="J356" s="3"/>
       <c r="K356" s="13"/>
@@ -14720,20 +15063,20 @@
         <v>270</v>
       </c>
       <c r="M356" s="29" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="N356" s="56" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="48" x14ac:dyDescent="0.35">
       <c r="A357" s="3"/>
       <c r="B357" s="21"/>
       <c r="C357" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E357" s="3"/>
       <c r="F357" s="13"/>
@@ -14741,10 +15084,10 @@
         <v>270</v>
       </c>
       <c r="H357" s="26" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="I357" s="31" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J357" s="3"/>
       <c r="K357" s="13"/>
@@ -14752,10 +15095,10 @@
         <v>270</v>
       </c>
       <c r="M357" s="29" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="N357" s="56" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="358" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14765,7 +15108,7 @@
         <v>270</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E358" s="3"/>
       <c r="F358" s="13"/>
@@ -14773,10 +15116,10 @@
         <v>270</v>
       </c>
       <c r="H358" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I358" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J358" s="3"/>
       <c r="K358" s="13"/>
@@ -14784,10 +15127,10 @@
         <v>270</v>
       </c>
       <c r="M358" s="29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N358" s="56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="359" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14797,7 +15140,7 @@
         <v>270</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E359" s="3"/>
       <c r="F359" s="13"/>
@@ -14805,10 +15148,10 @@
         <v>270</v>
       </c>
       <c r="H359" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I359" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J359" s="3"/>
       <c r="K359" s="13"/>
@@ -14816,10 +15159,10 @@
         <v>270</v>
       </c>
       <c r="M359" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N359" s="56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="360" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14829,7 +15172,7 @@
         <v>270</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E360" s="3"/>
       <c r="F360" s="13"/>
@@ -14837,10 +15180,10 @@
         <v>270</v>
       </c>
       <c r="H360" s="26" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="I360" s="31" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="J360" s="3"/>
       <c r="K360" s="13"/>
@@ -14848,10 +15191,10 @@
         <v>270</v>
       </c>
       <c r="M360" s="29" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="N360" s="56" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="361" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14861,7 +15204,7 @@
         <v>270</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E361" s="3"/>
       <c r="F361" s="13"/>
@@ -14869,10 +15212,10 @@
         <v>270</v>
       </c>
       <c r="H361" s="26" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I361" s="31" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J361" s="3"/>
       <c r="K361" s="13"/>
@@ -14880,74 +15223,74 @@
         <v>270</v>
       </c>
       <c r="M361" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="N361" s="56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A362" s="3"/>
+      <c r="B362" s="21"/>
+      <c r="C362" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E362" s="3"/>
+      <c r="F362" s="13"/>
+      <c r="G362" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="H362" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="I362" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J362" s="3"/>
+      <c r="K362" s="13"/>
+      <c r="L362" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M362" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="N362" s="56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A363" s="3"/>
+      <c r="B363" s="21"/>
+      <c r="C363" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E363" s="3"/>
+      <c r="F363" s="13"/>
+      <c r="G363" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="H363" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="N361" s="56" t="s">
+      <c r="I363" s="31" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A362" s="4"/>
-      <c r="B362" s="22"/>
-      <c r="C362" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E362" s="4"/>
-      <c r="F362" s="10"/>
-      <c r="G362" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="H362" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="I362" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="J362" s="4"/>
-      <c r="K362" s="10"/>
-      <c r="L362" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="M362" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="N362" s="56" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="363" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A363" s="4"/>
-      <c r="B363" s="22"/>
-      <c r="C363" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E363" s="4"/>
-      <c r="F363" s="10"/>
-      <c r="G363" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="H363" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="I363" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="J363" s="4"/>
-      <c r="K363" s="10"/>
+      <c r="J363" s="3"/>
+      <c r="K363" s="13"/>
       <c r="L363" s="34" t="s">
         <v>270</v>
       </c>
       <c r="M363" s="29" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="N363" s="56" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="364" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14957,7 +15300,7 @@
         <v>270</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E364" s="4"/>
       <c r="F364" s="10"/>
@@ -14965,10 +15308,10 @@
         <v>270</v>
       </c>
       <c r="H364" s="26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I364" s="31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J364" s="4"/>
       <c r="K364" s="10"/>
@@ -14976,10 +15319,10 @@
         <v>270</v>
       </c>
       <c r="M364" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N364" s="56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="365" spans="1:14" ht="24" x14ac:dyDescent="0.35">
@@ -14989,7 +15332,7 @@
         <v>270</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E365" s="4"/>
       <c r="F365" s="10"/>
@@ -14997,10 +15340,10 @@
         <v>270</v>
       </c>
       <c r="H365" s="26" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="I365" s="31" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="J365" s="4"/>
       <c r="K365" s="10"/>
@@ -15008,84 +15351,84 @@
         <v>270</v>
       </c>
       <c r="M365" s="29" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="N365" s="56" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="366" spans="1:14" ht="48" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A366" s="4"/>
       <c r="B366" s="22"/>
       <c r="C366" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="E366" s="4"/>
       <c r="F366" s="10"/>
       <c r="G366" s="27" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="H366" s="26" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="I366" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J366" s="4"/>
       <c r="K366" s="10"/>
       <c r="L366" s="34" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="M366" s="29" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="N366" s="56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="367" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A367" s="4"/>
       <c r="B367" s="22"/>
       <c r="C367" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="E367" s="4"/>
       <c r="F367" s="10"/>
       <c r="G367" s="27" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="H367" s="26" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="I367" s="31" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="J367" s="4"/>
       <c r="K367" s="10"/>
       <c r="L367" s="34" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="M367" s="29" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="N367" s="56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="368" spans="1:14" ht="60" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="48" x14ac:dyDescent="0.35">
       <c r="A368" s="4"/>
       <c r="B368" s="22"/>
       <c r="C368" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E368" s="4"/>
       <c r="F368" s="10"/>
@@ -15093,10 +15436,10 @@
         <v>11</v>
       </c>
       <c r="H368" s="26" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I368" s="31" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="J368" s="4"/>
       <c r="K368" s="10"/>
@@ -15104,27 +15447,167 @@
         <v>11</v>
       </c>
       <c r="M368" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N368" s="56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" ht="24" x14ac:dyDescent="0.35">
+      <c r="A369" s="4"/>
+      <c r="B369" s="22"/>
+      <c r="C369" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E369" s="4"/>
+      <c r="F369" s="10"/>
+      <c r="G369" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H369" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I369" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J369" s="4"/>
+      <c r="K369" s="10"/>
+      <c r="L369" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M369" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N369" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" ht="60" x14ac:dyDescent="0.35">
+      <c r="A370" s="4"/>
+      <c r="B370" s="22"/>
+      <c r="C370" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N368" s="56" t="s">
+      <c r="E370" s="4"/>
+      <c r="F370" s="10"/>
+      <c r="G370" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H370" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I370" s="31" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A369" s="5"/>
-      <c r="B369" s="23"/>
-      <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
-      <c r="E369" s="8"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="9"/>
-      <c r="I369" s="12"/>
-      <c r="J369" s="8"/>
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
-      <c r="M369" s="40"/>
-      <c r="N369" s="12"/>
+      <c r="J370" s="4"/>
+      <c r="K370" s="10"/>
+      <c r="L370" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M370" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N370" s="56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A371" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="C371" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D371" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E371" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="F371" s="18"/>
+      <c r="G371" s="28"/>
+      <c r="H371" s="25"/>
+      <c r="I371" s="32"/>
+      <c r="J371" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="K371" s="18"/>
+      <c r="L371" s="64"/>
+      <c r="M371" s="66"/>
+      <c r="N371" s="59"/>
+      <c r="O371" s="59" t="s">
+        <v>527</v>
+      </c>
+      <c r="P371" s="59"/>
+    </row>
+    <row r="372" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A372" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E372" s="3"/>
+      <c r="F372" s="14"/>
+      <c r="G372" s="27"/>
+      <c r="H372" s="26"/>
+      <c r="I372" s="31"/>
+      <c r="J372" s="3"/>
+      <c r="K372" s="14"/>
+      <c r="L372" s="34"/>
+      <c r="M372" s="67"/>
+      <c r="N372" s="56"/>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A373" s="3"/>
+      <c r="B373" s="21"/>
+      <c r="C373" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E373" s="3"/>
+      <c r="F373" s="13"/>
+      <c r="G373" s="27"/>
+      <c r="H373" s="26"/>
+      <c r="I373" s="31"/>
+      <c r="J373" s="3"/>
+      <c r="K373" s="13"/>
+      <c r="L373" s="34"/>
+      <c r="M373" s="29"/>
+      <c r="N373" s="56"/>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A374" s="3"/>
+      <c r="B374" s="21"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="3"/>
+      <c r="F374" s="13"/>
+      <c r="G374" s="27"/>
+      <c r="H374" s="26"/>
+      <c r="I374" s="31"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="13"/>
+      <c r="L374" s="34"/>
+      <c r="M374" s="29"/>
+      <c r="N374" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Doc/CODSchemaDictionary.xlsx
+++ b/Doc/CODSchemaDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13F0D40-7FC3-4775-B8AC-4F1CD89E0C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C28F5-E038-4D7A-9FAE-27E4D1EDDD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6089" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6098" uniqueCount="541">
   <si>
     <t>Template GDB</t>
   </si>
@@ -1633,6 +1633,33 @@
   </si>
   <si>
     <t xml:space="preserve">Table to retain the area in a projected equal area albers projection </t>
+  </si>
+  <si>
+    <t>Table of Administrative Boundary sheets for each country/territory</t>
+  </si>
+  <si>
+    <t>Name: XXX_AdminBoundaries_TabularData.xlsx</t>
+  </si>
+  <si>
+    <t>Fields: See Shapefile and add Area_SqKm</t>
+  </si>
+  <si>
+    <t>Vector Tiles</t>
+  </si>
+  <si>
+    <t>.pbf using ogr geotools sde to geojson</t>
+  </si>
+  <si>
+    <t>Name: XXX_adm&lt;level&gt;</t>
+  </si>
+  <si>
+    <t>Fields: See SDE</t>
+  </si>
+  <si>
+    <t>Deployed to HDX also here: https://github.com/UGA-ITOSHumanitarianGIS/mapservicedoc/tree/Version3SchemaUpdate/Data/GazetteerSqKm/GazetteerCombinedAdminLevels</t>
+  </si>
+  <si>
+    <t>Deployed:  COD Services API see documention on Vector tiles: https://apps.itos.uga.edu/CODV2API/api/v1/Resource/CODServiceVectorTile</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2059,11 +2086,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2289,6 +2329,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2325,23 +2368,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2639,14 +2695,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="78" t="s">
@@ -3432,14 +3488,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="97" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="98"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="99"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
@@ -3464,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE37DB-6B88-4194-A914-4E1FD4161A64}">
   <dimension ref="A1:T374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="A372" sqref="A372"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3484,39 +3540,42 @@
     <col min="13" max="13" width="16.26953125" customWidth="1"/>
     <col min="14" max="14" width="29.7265625" customWidth="1"/>
     <col min="15" max="15" width="18.7265625" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" style="104" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.453125" style="108" customWidth="1"/>
+    <col min="17" max="17" width="33.36328125" style="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="99" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="96"/>
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
       <c r="P1" s="104" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="Q1" s="104" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="41" t="s">
         <v>130</v>
       </c>
@@ -3559,10 +3618,13 @@
       </c>
       <c r="O2" s="57"/>
       <c r="P2" s="105" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="36.5" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>5</v>
       </c>
@@ -3602,8 +3664,14 @@
       </c>
       <c r="N3" s="58"/>
       <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="1:17" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="P3" s="106" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q3" s="106" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="16" t="s">
         <v>154</v>
@@ -3633,8 +3701,14 @@
       </c>
       <c r="N4" s="55"/>
       <c r="O4" s="56"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P4" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q4" s="107" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
@@ -3662,6 +3736,12 @@
       </c>
       <c r="N5" s="55"/>
       <c r="O5" s="56"/>
+      <c r="P5" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q5" s="107" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -3691,7 +3771,12 @@
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="56"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="108" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q6" s="109" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
@@ -3912,7 +3997,7 @@
         <v>143</v>
       </c>
       <c r="O12" s="56"/>
-      <c r="P12" s="106"/>
+      <c r="P12" s="111"/>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -4348,8 +4433,8 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="16" t="s">
-        <v>48</v>
+      <c r="B26" s="91" t="s">
+        <v>452</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>68</v>
@@ -4375,16 +4460,15 @@
         <v>69</v>
       </c>
       <c r="N26" s="56"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="107" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q26" s="61"/>
+      <c r="O26" s="89"/>
+      <c r="Q26" s="112"/>
       <c r="R26" s="29"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="91" t="s">
+        <v>451</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
@@ -4409,13 +4493,10 @@
         <v>325</v>
       </c>
       <c r="N27" s="56"/>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="P27" s="107" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q27" s="61"/>
+      <c r="Q27" s="112"/>
       <c r="R27" s="29"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -4445,9 +4526,9 @@
         <v>72</v>
       </c>
       <c r="N28" s="56"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="61"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="112"/>
       <c r="R28" s="29"/>
     </row>
     <row r="29" spans="1:18" ht="24" x14ac:dyDescent="0.35">
@@ -4484,7 +4565,7 @@
       <c r="O29" s="56" t="s">
         <v>454</v>
       </c>
-      <c r="Q29" s="34"/>
+      <c r="Q29" s="89"/>
     </row>
     <row r="30" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -4520,7 +4601,7 @@
       <c r="O30" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="89"/>
     </row>
     <row r="31" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
@@ -4556,7 +4637,7 @@
       <c r="O31" s="56" t="s">
         <v>456</v>
       </c>
-      <c r="Q31" s="34"/>
+      <c r="Q31" s="89"/>
     </row>
     <row r="32" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
@@ -4592,7 +4673,7 @@
       <c r="O32" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="Q32" s="34"/>
+      <c r="Q32" s="89"/>
     </row>
     <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
@@ -4628,8 +4709,8 @@
       <c r="O33" s="56" t="s">
         <v>458</v>
       </c>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="34"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="89"/>
     </row>
     <row r="34" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
@@ -4663,7 +4744,7 @@
         <v>177</v>
       </c>
       <c r="O34" s="67"/>
-      <c r="Q34" s="34"/>
+      <c r="Q34" s="89"/>
     </row>
     <row r="35" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
@@ -4697,7 +4778,7 @@
         <v>178</v>
       </c>
       <c r="O35" s="67"/>
-      <c r="Q35" s="34"/>
+      <c r="Q35" s="89"/>
     </row>
     <row r="36" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
@@ -4731,7 +4812,7 @@
         <v>179</v>
       </c>
       <c r="O36" s="67"/>
-      <c r="Q36" s="34"/>
+      <c r="Q36" s="89"/>
     </row>
     <row r="37" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
@@ -4765,7 +4846,7 @@
         <v>180</v>
       </c>
       <c r="O37" s="67"/>
-      <c r="Q37" s="34"/>
+      <c r="Q37" s="89"/>
     </row>
     <row r="38" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
@@ -4799,7 +4880,7 @@
         <v>181</v>
       </c>
       <c r="O38" s="67"/>
-      <c r="Q38" s="34"/>
+      <c r="Q38" s="89"/>
     </row>
     <row r="39" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
@@ -4833,7 +4914,7 @@
         <v>182</v>
       </c>
       <c r="O39" s="67"/>
-      <c r="Q39" s="34"/>
+      <c r="Q39" s="89"/>
     </row>
     <row r="40" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
@@ -4867,7 +4948,7 @@
         <v>183</v>
       </c>
       <c r="O40" s="67"/>
-      <c r="Q40" s="34"/>
+      <c r="Q40" s="89"/>
     </row>
     <row r="41" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
@@ -4901,7 +4982,7 @@
         <v>184</v>
       </c>
       <c r="O41" s="67"/>
-      <c r="Q41" s="34"/>
+      <c r="Q41" s="89"/>
     </row>
     <row r="42" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
@@ -4935,7 +5016,7 @@
         <v>185</v>
       </c>
       <c r="O42" s="67"/>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="89"/>
     </row>
     <row r="43" spans="1:20" ht="24" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
@@ -4975,8 +5056,8 @@
       <c r="O43" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="34"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="89"/>
       <c r="R43" s="34"/>
       <c r="T43" s="34"/>
     </row>
@@ -5014,8 +5095,8 @@
       <c r="O44" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="P44" s="107"/>
-      <c r="Q44" s="34"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="89"/>
       <c r="R44" s="34"/>
       <c r="T44" s="34"/>
     </row>
@@ -5053,8 +5134,8 @@
       <c r="O45" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="P45" s="107"/>
-      <c r="Q45" s="34"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="89"/>
       <c r="R45" s="34"/>
       <c r="T45" s="34"/>
     </row>
@@ -5400,7 +5481,7 @@
       <c r="O56" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="P56" s="107"/>
+      <c r="P56" s="113"/>
     </row>
     <row r="57" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
@@ -5436,7 +5517,7 @@
       <c r="O57" s="56" t="s">
         <v>465</v>
       </c>
-      <c r="P57" s="107"/>
+      <c r="P57" s="113"/>
     </row>
     <row r="58" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
@@ -5472,7 +5553,7 @@
       <c r="O58" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="P58" s="107"/>
+      <c r="P58" s="113"/>
     </row>
     <row r="59" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
@@ -5508,7 +5589,7 @@
       <c r="O59" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="P59" s="107"/>
+      <c r="P59" s="113"/>
     </row>
     <row r="60" spans="1:19" ht="36" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
@@ -5544,7 +5625,7 @@
       <c r="O60" s="56" t="s">
         <v>468</v>
       </c>
-      <c r="P60" s="107"/>
+      <c r="P60" s="113"/>
     </row>
     <row r="61" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
@@ -6463,7 +6544,7 @@
       <c r="N88" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="P88" s="107"/>
+      <c r="P88" s="113"/>
     </row>
     <row r="89" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
@@ -6528,7 +6609,7 @@
       <c r="N90" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="P90" s="107"/>
+      <c r="P90" s="113"/>
     </row>
     <row r="91" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
@@ -6561,7 +6642,7 @@
       <c r="N91" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="P91" s="107"/>
+      <c r="P91" s="113"/>
     </row>
     <row r="92" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
@@ -6594,7 +6675,7 @@
       <c r="N92" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="P92" s="107"/>
+      <c r="P92" s="113"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
@@ -6627,7 +6708,7 @@
       <c r="N93" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="P93" s="107"/>
+      <c r="P93" s="113"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
@@ -6660,7 +6741,7 @@
       <c r="N94" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="P94" s="108"/>
+      <c r="P94" s="114"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
@@ -6693,7 +6774,7 @@
       <c r="N95" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="P95" s="107"/>
+      <c r="P95" s="113"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
@@ -6726,7 +6807,7 @@
       <c r="N96" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="P96" s="107"/>
+      <c r="P96" s="113"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
@@ -6759,7 +6840,7 @@
       <c r="N97" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="P97" s="107"/>
+      <c r="P97" s="113"/>
     </row>
     <row r="98" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
@@ -6792,7 +6873,7 @@
       <c r="N98" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="P98" s="107"/>
+      <c r="P98" s="113"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
@@ -6825,7 +6906,7 @@
       <c r="N99" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="P99" s="107"/>
+      <c r="P99" s="113"/>
     </row>
     <row r="100" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
@@ -6858,7 +6939,7 @@
       <c r="N100" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="P100" s="107"/>
+      <c r="P100" s="113"/>
     </row>
     <row r="101" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
@@ -6891,7 +6972,7 @@
       <c r="N101" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="P101" s="107"/>
+      <c r="P101" s="113"/>
     </row>
     <row r="102" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
@@ -6924,7 +7005,7 @@
       <c r="N102" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="P102" s="107"/>
+      <c r="P102" s="113"/>
     </row>
     <row r="103" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
@@ -6957,7 +7038,7 @@
       <c r="N103" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="P103" s="107"/>
+      <c r="P103" s="113"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
@@ -6990,7 +7071,7 @@
       <c r="N104" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="P104" s="107"/>
+      <c r="P104" s="113"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
@@ -7023,7 +7104,7 @@
       <c r="N105" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="P105" s="107"/>
+      <c r="P105" s="113"/>
     </row>
     <row r="106" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
@@ -7056,7 +7137,7 @@
       <c r="N106" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="P106" s="107"/>
+      <c r="P106" s="113"/>
     </row>
     <row r="107" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
@@ -7089,7 +7170,7 @@
       <c r="N107" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="P107" s="107"/>
+      <c r="P107" s="113"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
@@ -7122,7 +7203,7 @@
       <c r="N108" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="P108" s="107"/>
+      <c r="P108" s="113"/>
     </row>
     <row r="109" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
@@ -7155,7 +7236,7 @@
       <c r="N109" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="P109" s="107"/>
+      <c r="P109" s="113"/>
     </row>
     <row r="110" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
@@ -7188,7 +7269,7 @@
       <c r="N110" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="P110" s="107"/>
+      <c r="P110" s="113"/>
     </row>
     <row r="111" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
@@ -7221,7 +7302,7 @@
       <c r="N111" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="P111" s="107"/>
+      <c r="P111" s="113"/>
     </row>
     <row r="112" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
@@ -7254,7 +7335,7 @@
       <c r="N112" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="P112" s="107"/>
+      <c r="P112" s="113"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
@@ -7287,7 +7368,7 @@
       <c r="N113" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="P113" s="107"/>
+      <c r="P113" s="113"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
@@ -7320,7 +7401,7 @@
       <c r="N114" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="P114" s="107"/>
+      <c r="P114" s="113"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
@@ -7353,7 +7434,7 @@
       <c r="N115" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="P115" s="107"/>
+      <c r="P115" s="113"/>
     </row>
     <row r="116" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
@@ -7386,7 +7467,7 @@
       <c r="N116" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="P116" s="107"/>
+      <c r="P116" s="113"/>
     </row>
     <row r="117" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
@@ -7419,7 +7500,7 @@
       <c r="N117" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="P117" s="107"/>
+      <c r="P117" s="113"/>
     </row>
     <row r="118" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
@@ -7452,7 +7533,7 @@
       <c r="N118" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="P118" s="107"/>
+      <c r="P118" s="113"/>
     </row>
     <row r="119" spans="1:16" ht="60" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
@@ -7485,7 +7566,7 @@
       <c r="N119" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="P119" s="107"/>
+      <c r="P119" s="113"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
@@ -10465,7 +10546,7 @@
         <v>232</v>
       </c>
       <c r="O213" s="39"/>
-      <c r="P213" s="108"/>
+      <c r="P213" s="114"/>
     </row>
     <row r="214" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
@@ -10901,7 +10982,7 @@
         <v>249</v>
       </c>
       <c r="O227" s="39"/>
-      <c r="Q227" s="29"/>
+      <c r="Q227" s="109"/>
       <c r="R227" s="39"/>
     </row>
     <row r="228" spans="1:18" ht="24" x14ac:dyDescent="0.35">
@@ -10935,7 +11016,7 @@
         <v>210</v>
       </c>
       <c r="O228" s="39"/>
-      <c r="Q228" s="29"/>
+      <c r="Q228" s="109"/>
     </row>
     <row r="229" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
@@ -10968,7 +11049,7 @@
         <v>211</v>
       </c>
       <c r="O229" s="39"/>
-      <c r="Q229" s="29"/>
+      <c r="Q229" s="109"/>
     </row>
     <row r="230" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A230" s="3"/>
@@ -11001,7 +11082,7 @@
         <v>212</v>
       </c>
       <c r="O230" s="39"/>
-      <c r="Q230" s="29"/>
+      <c r="Q230" s="109"/>
     </row>
     <row r="231" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A231" s="3"/>
@@ -11034,7 +11115,7 @@
         <v>213</v>
       </c>
       <c r="O231" s="39"/>
-      <c r="Q231" s="29"/>
+      <c r="Q231" s="109"/>
     </row>
     <row r="232" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A232" s="3"/>
@@ -11067,7 +11148,7 @@
         <v>214</v>
       </c>
       <c r="O232" s="39"/>
-      <c r="Q232" s="29"/>
+      <c r="Q232" s="109"/>
     </row>
     <row r="233" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A233" s="3"/>
@@ -11100,7 +11181,7 @@
         <v>215</v>
       </c>
       <c r="O233" s="39"/>
-      <c r="Q233" s="29"/>
+      <c r="Q233" s="109"/>
     </row>
     <row r="234" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A234" s="3"/>
@@ -11133,7 +11214,7 @@
         <v>216</v>
       </c>
       <c r="O234" s="39"/>
-      <c r="Q234" s="29"/>
+      <c r="Q234" s="109"/>
     </row>
     <row r="235" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A235" s="3"/>
@@ -11166,7 +11247,7 @@
         <v>217</v>
       </c>
       <c r="O235" s="39"/>
-      <c r="Q235" s="29"/>
+      <c r="Q235" s="109"/>
     </row>
     <row r="236" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A236" s="3"/>
@@ -11359,7 +11440,7 @@
         <v>248</v>
       </c>
       <c r="O241" s="39"/>
-      <c r="P241" s="109"/>
+      <c r="P241" s="115"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A242" s="3"/>
@@ -11392,7 +11473,7 @@
         <v>202</v>
       </c>
       <c r="O242" s="39"/>
-      <c r="P242" s="109"/>
+      <c r="P242" s="115"/>
     </row>
     <row r="243" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A243" s="3"/>
@@ -11425,7 +11506,7 @@
         <v>203</v>
       </c>
       <c r="O243" s="39"/>
-      <c r="P243" s="109"/>
+      <c r="P243" s="115"/>
     </row>
     <row r="244" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A244" s="3"/>
@@ -11458,7 +11539,7 @@
         <v>204</v>
       </c>
       <c r="O244" s="39"/>
-      <c r="P244" s="109"/>
+      <c r="P244" s="115"/>
     </row>
     <row r="245" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A245" s="3"/>
@@ -11491,7 +11572,7 @@
         <v>205</v>
       </c>
       <c r="O245" s="39"/>
-      <c r="P245" s="109"/>
+      <c r="P245" s="115"/>
     </row>
     <row r="246" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A246" s="3"/>
@@ -11524,7 +11605,7 @@
         <v>206</v>
       </c>
       <c r="O246" s="39"/>
-      <c r="P246" s="109"/>
+      <c r="P246" s="115"/>
     </row>
     <row r="247" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A247" s="3"/>
@@ -11557,7 +11638,7 @@
         <v>207</v>
       </c>
       <c r="O247" s="39"/>
-      <c r="P247" s="109"/>
+      <c r="P247" s="115"/>
     </row>
     <row r="248" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A248" s="3"/>
@@ -11590,7 +11671,7 @@
         <v>208</v>
       </c>
       <c r="O248" s="39"/>
-      <c r="P248" s="109"/>
+      <c r="P248" s="115"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A249" s="3"/>
@@ -11623,7 +11704,7 @@
         <v>209</v>
       </c>
       <c r="O249" s="39"/>
-      <c r="P249" s="109"/>
+      <c r="P249" s="115"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A250" s="3"/>
@@ -11816,7 +11897,7 @@
         <v>247</v>
       </c>
       <c r="O255" s="39"/>
-      <c r="P255" s="109"/>
+      <c r="P255" s="115"/>
     </row>
     <row r="256" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A256" s="3"/>
@@ -11849,7 +11930,7 @@
         <v>194</v>
       </c>
       <c r="O256" s="39"/>
-      <c r="P256" s="109"/>
+      <c r="P256" s="115"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A257" s="3"/>
@@ -11882,7 +11963,7 @@
         <v>195</v>
       </c>
       <c r="O257" s="39"/>
-      <c r="P257" s="109"/>
+      <c r="P257" s="115"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A258" s="3"/>
@@ -11915,7 +11996,7 @@
         <v>196</v>
       </c>
       <c r="O258" s="39"/>
-      <c r="P258" s="109"/>
+      <c r="P258" s="115"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A259" s="3"/>
@@ -11948,7 +12029,7 @@
         <v>197</v>
       </c>
       <c r="O259" s="39"/>
-      <c r="P259" s="109"/>
+      <c r="P259" s="115"/>
     </row>
     <row r="260" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A260" s="3"/>
@@ -11981,7 +12062,7 @@
         <v>198</v>
       </c>
       <c r="O260" s="39"/>
-      <c r="P260" s="109"/>
+      <c r="P260" s="115"/>
     </row>
     <row r="261" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A261" s="3"/>
@@ -12014,7 +12095,7 @@
         <v>199</v>
       </c>
       <c r="O261" s="39"/>
-      <c r="P261" s="109"/>
+      <c r="P261" s="115"/>
     </row>
     <row r="262" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A262" s="3"/>
@@ -12047,7 +12128,7 @@
         <v>200</v>
       </c>
       <c r="O262" s="39"/>
-      <c r="P262" s="109"/>
+      <c r="P262" s="115"/>
     </row>
     <row r="263" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A263" s="3"/>
@@ -12080,7 +12161,7 @@
         <v>201</v>
       </c>
       <c r="O263" s="39"/>
-      <c r="P263" s="109"/>
+      <c r="P263" s="115"/>
     </row>
     <row r="264" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A264" s="3"/>
@@ -12273,7 +12354,7 @@
         <v>240</v>
       </c>
       <c r="O269" s="39"/>
-      <c r="P269" s="109"/>
+      <c r="P269" s="115"/>
     </row>
     <row r="270" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A270" s="3"/>
@@ -12306,7 +12387,7 @@
         <v>186</v>
       </c>
       <c r="O270" s="39"/>
-      <c r="P270" s="109"/>
+      <c r="P270" s="115"/>
     </row>
     <row r="271" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A271" s="3"/>
@@ -12339,7 +12420,7 @@
         <v>187</v>
       </c>
       <c r="O271" s="39"/>
-      <c r="P271" s="109"/>
+      <c r="P271" s="115"/>
     </row>
     <row r="272" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A272" s="3"/>
@@ -12372,7 +12453,7 @@
         <v>188</v>
       </c>
       <c r="O272" s="39"/>
-      <c r="P272" s="109"/>
+      <c r="P272" s="115"/>
     </row>
     <row r="273" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A273" s="3"/>
@@ -12405,7 +12486,7 @@
         <v>189</v>
       </c>
       <c r="O273" s="39"/>
-      <c r="P273" s="109"/>
+      <c r="P273" s="115"/>
     </row>
     <row r="274" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A274" s="3"/>
@@ -12438,7 +12519,7 @@
         <v>190</v>
       </c>
       <c r="O274" s="39"/>
-      <c r="P274" s="109"/>
+      <c r="P274" s="115"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A275" s="3"/>
@@ -12471,7 +12552,7 @@
         <v>191</v>
       </c>
       <c r="O275" s="39"/>
-      <c r="P275" s="109"/>
+      <c r="P275" s="115"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A276" s="3"/>
@@ -12504,7 +12585,7 @@
         <v>192</v>
       </c>
       <c r="O276" s="39"/>
-      <c r="P276" s="109"/>
+      <c r="P276" s="115"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A277" s="3"/>
@@ -12537,7 +12618,7 @@
         <v>193</v>
       </c>
       <c r="O277" s="39"/>
-      <c r="P277" s="109"/>
+      <c r="P277" s="115"/>
     </row>
     <row r="278" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A278" s="3"/>
@@ -12730,7 +12811,7 @@
         <v>177</v>
       </c>
       <c r="O283" s="39"/>
-      <c r="P283" s="109"/>
+      <c r="P283" s="115"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A284" s="3"/>
@@ -12763,7 +12844,7 @@
         <v>178</v>
       </c>
       <c r="O284" s="39"/>
-      <c r="P284" s="109"/>
+      <c r="P284" s="115"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A285" s="3"/>
@@ -12796,7 +12877,7 @@
         <v>427</v>
       </c>
       <c r="O285" s="39"/>
-      <c r="P285" s="109"/>
+      <c r="P285" s="115"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A286" s="3"/>
@@ -12829,7 +12910,7 @@
         <v>180</v>
       </c>
       <c r="O286" s="39"/>
-      <c r="P286" s="109"/>
+      <c r="P286" s="115"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
@@ -12862,7 +12943,7 @@
         <v>428</v>
       </c>
       <c r="O287" s="39"/>
-      <c r="P287" s="109"/>
+      <c r="P287" s="115"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A288" s="3"/>
@@ -12895,7 +12976,7 @@
         <v>182</v>
       </c>
       <c r="O288" s="39"/>
-      <c r="P288" s="109"/>
+      <c r="P288" s="115"/>
     </row>
     <row r="289" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A289" s="3"/>
@@ -12928,7 +13009,7 @@
         <v>429</v>
       </c>
       <c r="O289" s="39"/>
-      <c r="P289" s="109"/>
+      <c r="P289" s="115"/>
     </row>
     <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A290" s="3"/>
@@ -12961,7 +13042,7 @@
         <v>184</v>
       </c>
       <c r="O290" s="39"/>
-      <c r="P290" s="109"/>
+      <c r="P290" s="115"/>
     </row>
     <row r="291" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A291" s="3"/>
@@ -12994,7 +13075,7 @@
         <v>430</v>
       </c>
       <c r="O291" s="39"/>
-      <c r="P291" s="109"/>
+      <c r="P291" s="115"/>
     </row>
     <row r="292" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A292" s="3"/>
@@ -13187,7 +13268,7 @@
         <v>431</v>
       </c>
       <c r="O297" s="39"/>
-      <c r="P297" s="109"/>
+      <c r="P297" s="115"/>
     </row>
     <row r="298" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A298" s="3"/>
@@ -13220,7 +13301,7 @@
         <v>432</v>
       </c>
       <c r="O298" s="39"/>
-      <c r="P298" s="109"/>
+      <c r="P298" s="115"/>
     </row>
     <row r="299" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A299" s="3"/>
@@ -13253,7 +13334,7 @@
         <v>433</v>
       </c>
       <c r="O299" s="39"/>
-      <c r="P299" s="109"/>
+      <c r="P299" s="115"/>
     </row>
     <row r="300" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A300" s="3"/>
@@ -13286,7 +13367,7 @@
         <v>434</v>
       </c>
       <c r="O300" s="39"/>
-      <c r="P300" s="109"/>
+      <c r="P300" s="115"/>
     </row>
     <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A301" s="3"/>
@@ -13319,7 +13400,7 @@
         <v>435</v>
       </c>
       <c r="O301" s="39"/>
-      <c r="P301" s="109"/>
+      <c r="P301" s="115"/>
     </row>
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A302" s="3"/>
@@ -13352,7 +13433,7 @@
         <v>436</v>
       </c>
       <c r="O302" s="39"/>
-      <c r="P302" s="109"/>
+      <c r="P302" s="115"/>
     </row>
     <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A303" s="3"/>
@@ -13385,7 +13466,7 @@
         <v>437</v>
       </c>
       <c r="O303" s="39"/>
-      <c r="P303" s="109"/>
+      <c r="P303" s="115"/>
     </row>
     <row r="304" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A304" s="3"/>
@@ -13418,7 +13499,7 @@
         <v>438</v>
       </c>
       <c r="O304" s="39"/>
-      <c r="P304" s="109"/>
+      <c r="P304" s="115"/>
     </row>
     <row r="305" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A305" s="3"/>
@@ -13451,7 +13532,7 @@
         <v>439</v>
       </c>
       <c r="O305" s="39"/>
-      <c r="P305" s="109"/>
+      <c r="P305" s="115"/>
     </row>
     <row r="306" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A306" s="3"/>
@@ -13562,7 +13643,7 @@
       <c r="H309" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="I309" s="103" t="s">
+      <c r="I309" s="27" t="s">
         <v>521</v>
       </c>
       <c r="J309" s="3"/>
@@ -13571,7 +13652,7 @@
       <c r="M309" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="N309" s="103" t="s">
+      <c r="N309" s="27" t="s">
         <v>521</v>
       </c>
       <c r="O309" s="39"/>
@@ -13589,7 +13670,7 @@
       <c r="H310" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="I310" s="103" t="s">
+      <c r="I310" s="27" t="s">
         <v>522</v>
       </c>
       <c r="J310" s="3"/>
@@ -13598,7 +13679,7 @@
       <c r="M310" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="N310" s="103" t="s">
+      <c r="N310" s="27" t="s">
         <v>522</v>
       </c>
       <c r="O310" s="39"/>
@@ -15650,26 +15731,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="99" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102" t="s">
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="103" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="96"/>
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
@@ -27388,14 +27469,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="78" t="s">
@@ -28181,14 +28262,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="97" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="98"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="99"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>

--- a/Doc/CODSchemaDictionary.xlsx
+++ b/Doc/CODSchemaDictionary.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C28F5-E038-4D7A-9FAE-27E4D1EDDD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF502092-4E37-4319-9E44-07242C793B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="8" r:id="rId1"/>
     <sheet name="DataDictionaryV2" sheetId="7" r:id="rId2"/>
     <sheet name="DataDictionaryV1" sheetId="3" r:id="rId3"/>
     <sheet name="V1" sheetId="4" r:id="rId4"/>
+    <sheet name="ADMLEVEL" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6098" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="549">
   <si>
     <t>Template GDB</t>
   </si>
@@ -1660,6 +1661,30 @@
   </si>
   <si>
     <t>Deployed:  COD Services API see documention on Vector tiles: https://apps.itos.uga.edu/CODV2API/api/v1/Resource/CODServiceVectorTile</t>
+  </si>
+  <si>
+    <t>Admin Lines Layers reflect status of boundaries for proper cartographic representation</t>
+  </si>
+  <si>
+    <t>As of 10/19/2023 the following codes are used:</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Note that -1 was used for Abyei in 2016 version 0 and is not in the 2023 current enhanced COD</t>
   </si>
 </sst>
 </file>
@@ -2332,6 +2357,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2367,38 +2424,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2695,14 +2720,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="78" t="s">
@@ -3488,14 +3513,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="109" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="99"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="111"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
@@ -3520,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE37DB-6B88-4194-A914-4E1FD4161A64}">
   <dimension ref="A1:T374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -3540,38 +3565,38 @@
     <col min="13" max="13" width="16.26953125" customWidth="1"/>
     <col min="14" max="14" width="29.7265625" customWidth="1"/>
     <col min="15" max="15" width="18.7265625" customWidth="1"/>
-    <col min="16" max="16" width="24.453125" style="108" customWidth="1"/>
-    <col min="17" max="17" width="33.36328125" style="110" customWidth="1"/>
+    <col min="16" max="16" width="24.453125" style="96" customWidth="1"/>
+    <col min="17" max="17" width="33.36328125" style="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="100" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103" t="s">
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
-      <c r="P1" s="104" t="s">
+      <c r="P1" s="92" t="s">
         <v>526</v>
       </c>
-      <c r="Q1" s="104" t="s">
+      <c r="Q1" s="92" t="s">
         <v>535</v>
       </c>
     </row>
@@ -3617,10 +3642,10 @@
         <v>142</v>
       </c>
       <c r="O2" s="57"/>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="Q2" s="105" t="s">
+      <c r="Q2" s="93" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3664,10 +3689,10 @@
       </c>
       <c r="N3" s="58"/>
       <c r="O3" s="58"/>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="94" t="s">
         <v>532</v>
       </c>
-      <c r="Q3" s="106" t="s">
+      <c r="Q3" s="94" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3704,7 +3729,7 @@
       <c r="P4" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="95" t="s">
         <v>537</v>
       </c>
     </row>
@@ -3739,7 +3764,7 @@
       <c r="P5" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="Q5" s="107" t="s">
+      <c r="Q5" s="95" t="s">
         <v>538</v>
       </c>
     </row>
@@ -3771,10 +3796,10 @@
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="56"/>
-      <c r="P6" s="108" t="s">
+      <c r="P6" s="96" t="s">
         <v>539</v>
       </c>
-      <c r="Q6" s="109" t="s">
+      <c r="Q6" s="97" t="s">
         <v>540</v>
       </c>
     </row>
@@ -3997,7 +4022,7 @@
         <v>143</v>
       </c>
       <c r="O12" s="56"/>
-      <c r="P12" s="111"/>
+      <c r="P12" s="99"/>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -4461,7 +4486,7 @@
       </c>
       <c r="N26" s="56"/>
       <c r="O26" s="89"/>
-      <c r="Q26" s="112"/>
+      <c r="Q26" s="100"/>
       <c r="R26" s="29"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
@@ -4496,7 +4521,7 @@
       <c r="O27" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="Q27" s="112"/>
+      <c r="Q27" s="100"/>
       <c r="R27" s="29"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -4527,8 +4552,8 @@
       </c>
       <c r="N28" s="56"/>
       <c r="O28" s="89"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="112"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="100"/>
       <c r="R28" s="29"/>
     </row>
     <row r="29" spans="1:18" ht="24" x14ac:dyDescent="0.35">
@@ -4709,7 +4734,7 @@
       <c r="O33" s="56" t="s">
         <v>458</v>
       </c>
-      <c r="P33" s="113"/>
+      <c r="P33" s="101"/>
       <c r="Q33" s="89"/>
     </row>
     <row r="34" spans="1:20" ht="24" x14ac:dyDescent="0.35">
@@ -5056,7 +5081,7 @@
       <c r="O43" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="P43" s="113"/>
+      <c r="P43" s="101"/>
       <c r="Q43" s="89"/>
       <c r="R43" s="34"/>
       <c r="T43" s="34"/>
@@ -5095,7 +5120,7 @@
       <c r="O44" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="P44" s="113"/>
+      <c r="P44" s="101"/>
       <c r="Q44" s="89"/>
       <c r="R44" s="34"/>
       <c r="T44" s="34"/>
@@ -5134,7 +5159,7 @@
       <c r="O45" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="P45" s="113"/>
+      <c r="P45" s="101"/>
       <c r="Q45" s="89"/>
       <c r="R45" s="34"/>
       <c r="T45" s="34"/>
@@ -5481,7 +5506,7 @@
       <c r="O56" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="P56" s="113"/>
+      <c r="P56" s="101"/>
     </row>
     <row r="57" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
@@ -5517,7 +5542,7 @@
       <c r="O57" s="56" t="s">
         <v>465</v>
       </c>
-      <c r="P57" s="113"/>
+      <c r="P57" s="101"/>
     </row>
     <row r="58" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
@@ -5553,7 +5578,7 @@
       <c r="O58" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="P58" s="113"/>
+      <c r="P58" s="101"/>
     </row>
     <row r="59" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
@@ -5589,7 +5614,7 @@
       <c r="O59" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="P59" s="113"/>
+      <c r="P59" s="101"/>
     </row>
     <row r="60" spans="1:19" ht="36" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
@@ -5625,7 +5650,7 @@
       <c r="O60" s="56" t="s">
         <v>468</v>
       </c>
-      <c r="P60" s="113"/>
+      <c r="P60" s="101"/>
     </row>
     <row r="61" spans="1:19" ht="24" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
@@ -6544,7 +6569,7 @@
       <c r="N88" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="P88" s="113"/>
+      <c r="P88" s="101"/>
     </row>
     <row r="89" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
@@ -6609,7 +6634,7 @@
       <c r="N90" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="P90" s="113"/>
+      <c r="P90" s="101"/>
     </row>
     <row r="91" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
@@ -6642,7 +6667,7 @@
       <c r="N91" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="P91" s="113"/>
+      <c r="P91" s="101"/>
     </row>
     <row r="92" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
@@ -6675,7 +6700,7 @@
       <c r="N92" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="P92" s="113"/>
+      <c r="P92" s="101"/>
     </row>
     <row r="93" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
@@ -6708,7 +6733,7 @@
       <c r="N93" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="P93" s="113"/>
+      <c r="P93" s="101"/>
     </row>
     <row r="94" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
@@ -6741,7 +6766,7 @@
       <c r="N94" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="P94" s="114"/>
+      <c r="P94" s="102"/>
     </row>
     <row r="95" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
@@ -6774,7 +6799,7 @@
       <c r="N95" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="P95" s="113"/>
+      <c r="P95" s="101"/>
     </row>
     <row r="96" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
@@ -6807,7 +6832,7 @@
       <c r="N96" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="P96" s="113"/>
+      <c r="P96" s="101"/>
     </row>
     <row r="97" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
@@ -6840,7 +6865,7 @@
       <c r="N97" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="P97" s="113"/>
+      <c r="P97" s="101"/>
     </row>
     <row r="98" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
@@ -6873,7 +6898,7 @@
       <c r="N98" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="P98" s="113"/>
+      <c r="P98" s="101"/>
     </row>
     <row r="99" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
@@ -6906,7 +6931,7 @@
       <c r="N99" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="P99" s="113"/>
+      <c r="P99" s="101"/>
     </row>
     <row r="100" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
@@ -6939,7 +6964,7 @@
       <c r="N100" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="P100" s="113"/>
+      <c r="P100" s="101"/>
     </row>
     <row r="101" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
@@ -6972,7 +6997,7 @@
       <c r="N101" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="P101" s="113"/>
+      <c r="P101" s="101"/>
     </row>
     <row r="102" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
@@ -7005,7 +7030,7 @@
       <c r="N102" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="P102" s="113"/>
+      <c r="P102" s="101"/>
     </row>
     <row r="103" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
@@ -7038,7 +7063,7 @@
       <c r="N103" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="P103" s="113"/>
+      <c r="P103" s="101"/>
     </row>
     <row r="104" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
@@ -7071,7 +7096,7 @@
       <c r="N104" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="P104" s="113"/>
+      <c r="P104" s="101"/>
     </row>
     <row r="105" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
@@ -7104,7 +7129,7 @@
       <c r="N105" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="P105" s="113"/>
+      <c r="P105" s="101"/>
     </row>
     <row r="106" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
@@ -7137,7 +7162,7 @@
       <c r="N106" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="P106" s="113"/>
+      <c r="P106" s="101"/>
     </row>
     <row r="107" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
@@ -7170,7 +7195,7 @@
       <c r="N107" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="P107" s="113"/>
+      <c r="P107" s="101"/>
     </row>
     <row r="108" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
@@ -7203,7 +7228,7 @@
       <c r="N108" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="P108" s="113"/>
+      <c r="P108" s="101"/>
     </row>
     <row r="109" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
@@ -7236,7 +7261,7 @@
       <c r="N109" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="P109" s="113"/>
+      <c r="P109" s="101"/>
     </row>
     <row r="110" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
@@ -7269,7 +7294,7 @@
       <c r="N110" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="P110" s="113"/>
+      <c r="P110" s="101"/>
     </row>
     <row r="111" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
@@ -7302,7 +7327,7 @@
       <c r="N111" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="P111" s="113"/>
+      <c r="P111" s="101"/>
     </row>
     <row r="112" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
@@ -7335,7 +7360,7 @@
       <c r="N112" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="P112" s="113"/>
+      <c r="P112" s="101"/>
     </row>
     <row r="113" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
@@ -7368,7 +7393,7 @@
       <c r="N113" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="P113" s="113"/>
+      <c r="P113" s="101"/>
     </row>
     <row r="114" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
@@ -7401,7 +7426,7 @@
       <c r="N114" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="P114" s="113"/>
+      <c r="P114" s="101"/>
     </row>
     <row r="115" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
@@ -7434,7 +7459,7 @@
       <c r="N115" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="P115" s="113"/>
+      <c r="P115" s="101"/>
     </row>
     <row r="116" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
@@ -7467,7 +7492,7 @@
       <c r="N116" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="P116" s="113"/>
+      <c r="P116" s="101"/>
     </row>
     <row r="117" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
@@ -7500,7 +7525,7 @@
       <c r="N117" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="P117" s="113"/>
+      <c r="P117" s="101"/>
     </row>
     <row r="118" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
@@ -7533,7 +7558,7 @@
       <c r="N118" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="P118" s="113"/>
+      <c r="P118" s="101"/>
     </row>
     <row r="119" spans="1:16" ht="60" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
@@ -7566,7 +7591,7 @@
       <c r="N119" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="P119" s="113"/>
+      <c r="P119" s="101"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
@@ -10546,7 +10571,7 @@
         <v>232</v>
       </c>
       <c r="O213" s="39"/>
-      <c r="P213" s="114"/>
+      <c r="P213" s="102"/>
     </row>
     <row r="214" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
@@ -10982,7 +11007,7 @@
         <v>249</v>
       </c>
       <c r="O227" s="39"/>
-      <c r="Q227" s="109"/>
+      <c r="Q227" s="97"/>
       <c r="R227" s="39"/>
     </row>
     <row r="228" spans="1:18" ht="24" x14ac:dyDescent="0.35">
@@ -11016,7 +11041,7 @@
         <v>210</v>
       </c>
       <c r="O228" s="39"/>
-      <c r="Q228" s="109"/>
+      <c r="Q228" s="97"/>
     </row>
     <row r="229" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
@@ -11049,7 +11074,7 @@
         <v>211</v>
       </c>
       <c r="O229" s="39"/>
-      <c r="Q229" s="109"/>
+      <c r="Q229" s="97"/>
     </row>
     <row r="230" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A230" s="3"/>
@@ -11082,7 +11107,7 @@
         <v>212</v>
       </c>
       <c r="O230" s="39"/>
-      <c r="Q230" s="109"/>
+      <c r="Q230" s="97"/>
     </row>
     <row r="231" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A231" s="3"/>
@@ -11115,7 +11140,7 @@
         <v>213</v>
       </c>
       <c r="O231" s="39"/>
-      <c r="Q231" s="109"/>
+      <c r="Q231" s="97"/>
     </row>
     <row r="232" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A232" s="3"/>
@@ -11148,7 +11173,7 @@
         <v>214</v>
       </c>
       <c r="O232" s="39"/>
-      <c r="Q232" s="109"/>
+      <c r="Q232" s="97"/>
     </row>
     <row r="233" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A233" s="3"/>
@@ -11181,7 +11206,7 @@
         <v>215</v>
       </c>
       <c r="O233" s="39"/>
-      <c r="Q233" s="109"/>
+      <c r="Q233" s="97"/>
     </row>
     <row r="234" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A234" s="3"/>
@@ -11214,7 +11239,7 @@
         <v>216</v>
       </c>
       <c r="O234" s="39"/>
-      <c r="Q234" s="109"/>
+      <c r="Q234" s="97"/>
     </row>
     <row r="235" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A235" s="3"/>
@@ -11247,7 +11272,7 @@
         <v>217</v>
       </c>
       <c r="O235" s="39"/>
-      <c r="Q235" s="109"/>
+      <c r="Q235" s="97"/>
     </row>
     <row r="236" spans="1:18" ht="24" x14ac:dyDescent="0.35">
       <c r="A236" s="3"/>
@@ -11440,7 +11465,7 @@
         <v>248</v>
       </c>
       <c r="O241" s="39"/>
-      <c r="P241" s="115"/>
+      <c r="P241" s="103"/>
     </row>
     <row r="242" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A242" s="3"/>
@@ -11473,7 +11498,7 @@
         <v>202</v>
       </c>
       <c r="O242" s="39"/>
-      <c r="P242" s="115"/>
+      <c r="P242" s="103"/>
     </row>
     <row r="243" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A243" s="3"/>
@@ -11506,7 +11531,7 @@
         <v>203</v>
       </c>
       <c r="O243" s="39"/>
-      <c r="P243" s="115"/>
+      <c r="P243" s="103"/>
     </row>
     <row r="244" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A244" s="3"/>
@@ -11539,7 +11564,7 @@
         <v>204</v>
       </c>
       <c r="O244" s="39"/>
-      <c r="P244" s="115"/>
+      <c r="P244" s="103"/>
     </row>
     <row r="245" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A245" s="3"/>
@@ -11572,7 +11597,7 @@
         <v>205</v>
       </c>
       <c r="O245" s="39"/>
-      <c r="P245" s="115"/>
+      <c r="P245" s="103"/>
     </row>
     <row r="246" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A246" s="3"/>
@@ -11605,7 +11630,7 @@
         <v>206</v>
       </c>
       <c r="O246" s="39"/>
-      <c r="P246" s="115"/>
+      <c r="P246" s="103"/>
     </row>
     <row r="247" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A247" s="3"/>
@@ -11638,7 +11663,7 @@
         <v>207</v>
       </c>
       <c r="O247" s="39"/>
-      <c r="P247" s="115"/>
+      <c r="P247" s="103"/>
     </row>
     <row r="248" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A248" s="3"/>
@@ -11671,7 +11696,7 @@
         <v>208</v>
       </c>
       <c r="O248" s="39"/>
-      <c r="P248" s="115"/>
+      <c r="P248" s="103"/>
     </row>
     <row r="249" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A249" s="3"/>
@@ -11704,7 +11729,7 @@
         <v>209</v>
       </c>
       <c r="O249" s="39"/>
-      <c r="P249" s="115"/>
+      <c r="P249" s="103"/>
     </row>
     <row r="250" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A250" s="3"/>
@@ -11897,7 +11922,7 @@
         <v>247</v>
       </c>
       <c r="O255" s="39"/>
-      <c r="P255" s="115"/>
+      <c r="P255" s="103"/>
     </row>
     <row r="256" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A256" s="3"/>
@@ -11930,7 +11955,7 @@
         <v>194</v>
       </c>
       <c r="O256" s="39"/>
-      <c r="P256" s="115"/>
+      <c r="P256" s="103"/>
     </row>
     <row r="257" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A257" s="3"/>
@@ -11963,7 +11988,7 @@
         <v>195</v>
       </c>
       <c r="O257" s="39"/>
-      <c r="P257" s="115"/>
+      <c r="P257" s="103"/>
     </row>
     <row r="258" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A258" s="3"/>
@@ -11996,7 +12021,7 @@
         <v>196</v>
       </c>
       <c r="O258" s="39"/>
-      <c r="P258" s="115"/>
+      <c r="P258" s="103"/>
     </row>
     <row r="259" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A259" s="3"/>
@@ -12029,7 +12054,7 @@
         <v>197</v>
       </c>
       <c r="O259" s="39"/>
-      <c r="P259" s="115"/>
+      <c r="P259" s="103"/>
     </row>
     <row r="260" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A260" s="3"/>
@@ -12062,7 +12087,7 @@
         <v>198</v>
       </c>
       <c r="O260" s="39"/>
-      <c r="P260" s="115"/>
+      <c r="P260" s="103"/>
     </row>
     <row r="261" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A261" s="3"/>
@@ -12095,7 +12120,7 @@
         <v>199</v>
       </c>
       <c r="O261" s="39"/>
-      <c r="P261" s="115"/>
+      <c r="P261" s="103"/>
     </row>
     <row r="262" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A262" s="3"/>
@@ -12128,7 +12153,7 @@
         <v>200</v>
       </c>
       <c r="O262" s="39"/>
-      <c r="P262" s="115"/>
+      <c r="P262" s="103"/>
     </row>
     <row r="263" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A263" s="3"/>
@@ -12161,7 +12186,7 @@
         <v>201</v>
       </c>
       <c r="O263" s="39"/>
-      <c r="P263" s="115"/>
+      <c r="P263" s="103"/>
     </row>
     <row r="264" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A264" s="3"/>
@@ -12354,7 +12379,7 @@
         <v>240</v>
       </c>
       <c r="O269" s="39"/>
-      <c r="P269" s="115"/>
+      <c r="P269" s="103"/>
     </row>
     <row r="270" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A270" s="3"/>
@@ -12387,7 +12412,7 @@
         <v>186</v>
       </c>
       <c r="O270" s="39"/>
-      <c r="P270" s="115"/>
+      <c r="P270" s="103"/>
     </row>
     <row r="271" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A271" s="3"/>
@@ -12420,7 +12445,7 @@
         <v>187</v>
       </c>
       <c r="O271" s="39"/>
-      <c r="P271" s="115"/>
+      <c r="P271" s="103"/>
     </row>
     <row r="272" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A272" s="3"/>
@@ -12453,7 +12478,7 @@
         <v>188</v>
       </c>
       <c r="O272" s="39"/>
-      <c r="P272" s="115"/>
+      <c r="P272" s="103"/>
     </row>
     <row r="273" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A273" s="3"/>
@@ -12486,7 +12511,7 @@
         <v>189</v>
       </c>
       <c r="O273" s="39"/>
-      <c r="P273" s="115"/>
+      <c r="P273" s="103"/>
     </row>
     <row r="274" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A274" s="3"/>
@@ -12519,7 +12544,7 @@
         <v>190</v>
       </c>
       <c r="O274" s="39"/>
-      <c r="P274" s="115"/>
+      <c r="P274" s="103"/>
     </row>
     <row r="275" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A275" s="3"/>
@@ -12552,7 +12577,7 @@
         <v>191</v>
       </c>
       <c r="O275" s="39"/>
-      <c r="P275" s="115"/>
+      <c r="P275" s="103"/>
     </row>
     <row r="276" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A276" s="3"/>
@@ -12585,7 +12610,7 @@
         <v>192</v>
       </c>
       <c r="O276" s="39"/>
-      <c r="P276" s="115"/>
+      <c r="P276" s="103"/>
     </row>
     <row r="277" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A277" s="3"/>
@@ -12618,7 +12643,7 @@
         <v>193</v>
       </c>
       <c r="O277" s="39"/>
-      <c r="P277" s="115"/>
+      <c r="P277" s="103"/>
     </row>
     <row r="278" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A278" s="3"/>
@@ -12811,7 +12836,7 @@
         <v>177</v>
       </c>
       <c r="O283" s="39"/>
-      <c r="P283" s="115"/>
+      <c r="P283" s="103"/>
     </row>
     <row r="284" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A284" s="3"/>
@@ -12844,7 +12869,7 @@
         <v>178</v>
       </c>
       <c r="O284" s="39"/>
-      <c r="P284" s="115"/>
+      <c r="P284" s="103"/>
     </row>
     <row r="285" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A285" s="3"/>
@@ -12877,7 +12902,7 @@
         <v>427</v>
       </c>
       <c r="O285" s="39"/>
-      <c r="P285" s="115"/>
+      <c r="P285" s="103"/>
     </row>
     <row r="286" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A286" s="3"/>
@@ -12910,7 +12935,7 @@
         <v>180</v>
       </c>
       <c r="O286" s="39"/>
-      <c r="P286" s="115"/>
+      <c r="P286" s="103"/>
     </row>
     <row r="287" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
@@ -12943,7 +12968,7 @@
         <v>428</v>
       </c>
       <c r="O287" s="39"/>
-      <c r="P287" s="115"/>
+      <c r="P287" s="103"/>
     </row>
     <row r="288" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A288" s="3"/>
@@ -12976,7 +13001,7 @@
         <v>182</v>
       </c>
       <c r="O288" s="39"/>
-      <c r="P288" s="115"/>
+      <c r="P288" s="103"/>
     </row>
     <row r="289" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A289" s="3"/>
@@ -13009,7 +13034,7 @@
         <v>429</v>
       </c>
       <c r="O289" s="39"/>
-      <c r="P289" s="115"/>
+      <c r="P289" s="103"/>
     </row>
     <row r="290" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A290" s="3"/>
@@ -13042,7 +13067,7 @@
         <v>184</v>
       </c>
       <c r="O290" s="39"/>
-      <c r="P290" s="115"/>
+      <c r="P290" s="103"/>
     </row>
     <row r="291" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A291" s="3"/>
@@ -13075,7 +13100,7 @@
         <v>430</v>
       </c>
       <c r="O291" s="39"/>
-      <c r="P291" s="115"/>
+      <c r="P291" s="103"/>
     </row>
     <row r="292" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A292" s="3"/>
@@ -13268,7 +13293,7 @@
         <v>431</v>
       </c>
       <c r="O297" s="39"/>
-      <c r="P297" s="115"/>
+      <c r="P297" s="103"/>
     </row>
     <row r="298" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A298" s="3"/>
@@ -13301,7 +13326,7 @@
         <v>432</v>
       </c>
       <c r="O298" s="39"/>
-      <c r="P298" s="115"/>
+      <c r="P298" s="103"/>
     </row>
     <row r="299" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A299" s="3"/>
@@ -13334,7 +13359,7 @@
         <v>433</v>
       </c>
       <c r="O299" s="39"/>
-      <c r="P299" s="115"/>
+      <c r="P299" s="103"/>
     </row>
     <row r="300" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A300" s="3"/>
@@ -13367,7 +13392,7 @@
         <v>434</v>
       </c>
       <c r="O300" s="39"/>
-      <c r="P300" s="115"/>
+      <c r="P300" s="103"/>
     </row>
     <row r="301" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A301" s="3"/>
@@ -13400,7 +13425,7 @@
         <v>435</v>
       </c>
       <c r="O301" s="39"/>
-      <c r="P301" s="115"/>
+      <c r="P301" s="103"/>
     </row>
     <row r="302" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A302" s="3"/>
@@ -13433,7 +13458,7 @@
         <v>436</v>
       </c>
       <c r="O302" s="39"/>
-      <c r="P302" s="115"/>
+      <c r="P302" s="103"/>
     </row>
     <row r="303" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A303" s="3"/>
@@ -13466,7 +13491,7 @@
         <v>437</v>
       </c>
       <c r="O303" s="39"/>
-      <c r="P303" s="115"/>
+      <c r="P303" s="103"/>
     </row>
     <row r="304" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A304" s="3"/>
@@ -13499,7 +13524,7 @@
         <v>438</v>
       </c>
       <c r="O304" s="39"/>
-      <c r="P304" s="115"/>
+      <c r="P304" s="103"/>
     </row>
     <row r="305" spans="1:16" ht="24" x14ac:dyDescent="0.35">
       <c r="A305" s="3"/>
@@ -13532,7 +13557,7 @@
         <v>439</v>
       </c>
       <c r="O305" s="39"/>
-      <c r="P305" s="115"/>
+      <c r="P305" s="103"/>
     </row>
     <row r="306" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A306" s="3"/>
@@ -15705,7 +15730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="O29" sqref="O29:O33"/>
     </sheetView>
   </sheetViews>
@@ -15731,26 +15756,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="100" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103" t="s">
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="108"/>
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
@@ -27469,14 +27494,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="78" t="s">
@@ -28262,14 +28287,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="109" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="99"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="111"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
@@ -28288,4 +28313,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D55752A-6856-4ECB-8270-E8DC9CA45D64}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/CODSchemaDictionary.xlsx
+++ b/Doc/CODSchemaDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF502092-4E37-4319-9E44-07242C793B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC67C6-4611-4C44-98E3-24980F64D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Doc/CODSchemaDictionary.xlsx
+++ b/Doc/CODSchemaDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC67C6-4611-4C44-98E3-24980F64D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC75468-1A2D-4B76-B7E3-1A77A74B0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6125" uniqueCount="567">
   <si>
     <t>Template GDB</t>
   </si>
@@ -1685,13 +1685,67 @@
   </si>
   <si>
     <t>Note that -1 was used for Abyei in 2016 version 0 and is not in the 2023 current enhanced COD</t>
+  </si>
+  <si>
+    <t>Southern limit of the Halaib Triangle.</t>
+  </si>
+  <si>
+    <t>The remainder of the boundary between South Sudan and Sudan.</t>
+  </si>
+  <si>
+    <t>The northern boundary of the disputed area known as the</t>
+  </si>
+  <si>
+    <t>That part of the Abyei region boundary that borders Sudan</t>
+  </si>
+  <si>
+    <t>That part of the Abyei region boundary that borders the rest of South Sudan. (Abyei region is not included in the polygon layers.)</t>
+  </si>
+  <si>
+    <t>West limit of Jammu and Kashmir.</t>
+  </si>
+  <si>
+    <t>Approximately Line of Control in Jammu and Kashmir.</t>
+  </si>
+  <si>
+    <t>Boundary between West Bank and Israel</t>
+  </si>
+  <si>
+    <t>Boundary between Gaza and Israel</t>
+  </si>
+  <si>
+    <t>No man’s land limit (not part of any administrative polygon edge).</t>
+  </si>
+  <si>
+    <t>Limit between de facto Somalia and Ethiopia</t>
+  </si>
+  <si>
+    <t>Northern limit of Bir Tawil area</t>
+  </si>
+  <si>
+    <t>Standard codes</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>ADM2 boundary – separating different ADM2 features within a common ADM1 features</t>
+  </si>
+  <si>
+    <t>Administrative level 1 (ADM1) boundary – separating different ADM1 features.</t>
+  </si>
+  <si>
+    <t>Shoreline</t>
+  </si>
+  <si>
+    <t>International boundary.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,8 +1858,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1822,6 +1889,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -2125,10 +2197,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2425,8 +2498,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -28317,10 +28396,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D55752A-6856-4ECB-8270-E8DC9CA45D64}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28330,79 +28409,178 @@
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="118" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="118">
+        <v>0</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="118">
+        <v>99</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="118">
+        <v>1</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="118">
+        <v>2</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="118">
+        <v>3</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="118">
+        <v>4</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>543</v>
       </c>
-      <c r="B4">
+      <c r="B11">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5">
+      <c r="C11" s="116" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C12" s="116" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="112" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>544</v>
       </c>
-      <c r="B6">
+      <c r="B13">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7">
+      <c r="C13" s="117" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8">
+      <c r="C14" s="116" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="112" x14ac:dyDescent="0.35">
+      <c r="B15">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9">
+      <c r="C15" s="117" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C16" s="116" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>545</v>
       </c>
-      <c r="B10">
+      <c r="B17">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11">
+      <c r="C17" s="116" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C18" s="116" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>546</v>
       </c>
-      <c r="B12">
+      <c r="B19">
+        <v>84</v>
+      </c>
+      <c r="C19" s="116" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>85</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C21" s="116" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>547</v>
       </c>
-      <c r="B13">
+      <c r="B22">
         <v>89</v>
+      </c>
+      <c r="C22" s="116" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/CODSchemaDictionary.xlsx
+++ b/Doc/CODSchemaDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC75468-1A2D-4B76-B7E3-1A77A74B0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288C1C0-EB44-4C43-AE4C-BE4217875563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6125" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6141" uniqueCount="575">
   <si>
     <t>Template GDB</t>
   </si>
@@ -1739,6 +1739,30 @@
   </si>
   <si>
     <t>International boundary.</t>
+  </si>
+  <si>
+    <t>COD_AdminLines_Lookup</t>
+  </si>
+  <si>
+    <t>Scope is all CODs</t>
+  </si>
+  <si>
+    <t>ISO_3</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>txt field, length 255</t>
+  </si>
+  <si>
+    <t>Domain is in ADMLEVEL tab</t>
+  </si>
+  <si>
+    <t>ADMLEVEL</t>
+  </si>
+  <si>
+    <t>txt field, length 10</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2462,6 +2486,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2498,11 +2527,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -2799,14 +2824,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="78" t="s">
@@ -3592,14 +3617,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="112" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="114"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
@@ -3622,10 +3647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE37DB-6B88-4194-A914-4E1FD4161A64}">
-  <dimension ref="A1:T374"/>
+  <dimension ref="A1:T378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3649,26 +3674,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="112" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
@@ -15778,21 +15803,93 @@
       <c r="M373" s="29"/>
       <c r="N373" s="56"/>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A374" s="3"/>
-      <c r="B374" s="21"/>
-      <c r="C374" s="1"/>
-      <c r="D374" s="1"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="13"/>
-      <c r="G374" s="27"/>
-      <c r="H374" s="26"/>
-      <c r="I374" s="31"/>
-      <c r="J374" s="3"/>
-      <c r="K374" s="13"/>
-      <c r="L374" s="34"/>
-      <c r="M374" s="29"/>
-      <c r="N374" s="56"/>
+    <row r="374" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A374" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C374" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D374" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E374" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="F374" s="18"/>
+      <c r="G374" s="28"/>
+      <c r="H374" s="25"/>
+      <c r="I374" s="32"/>
+      <c r="J374" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="K374" s="18"/>
+      <c r="L374" s="64"/>
+      <c r="M374" s="66"/>
+      <c r="N374" s="59"/>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A375" s="3"/>
+      <c r="B375" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E375" s="3"/>
+      <c r="F375" s="14"/>
+      <c r="G375" s="27"/>
+      <c r="H375" s="26"/>
+      <c r="I375" s="31"/>
+      <c r="J375" s="3"/>
+      <c r="K375" s="14"/>
+      <c r="L375" s="34"/>
+      <c r="M375" s="67"/>
+      <c r="N375" s="56"/>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A376" s="3"/>
+      <c r="C376" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E376" s="3"/>
+      <c r="F376" s="13"/>
+      <c r="G376" s="27"/>
+      <c r="H376" s="26"/>
+      <c r="I376" s="31"/>
+      <c r="J376" s="3"/>
+      <c r="K376" s="13"/>
+      <c r="L376" s="34"/>
+      <c r="M376" s="29"/>
+      <c r="N376" s="56"/>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C377" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="B378" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D378" s="119" t="s">
+        <v>573</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15835,26 +15932,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="112" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="108"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
       <c r="O1" s="74" t="s">
         <v>453</v>
       </c>
@@ -27573,14 +27670,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="78" t="s">
@@ -28366,14 +28463,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="112" t="s">
         <v>484</v>
       </c>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="111"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="114"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5"/>
@@ -28409,56 +28506,56 @@
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="118" t="s">
+    <row r="2" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="106" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="118">
+    <row r="3" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="106">
         <v>0</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="106" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="118">
+    <row r="4" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="106">
         <v>99</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="106" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="118">
+    <row r="5" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="106">
         <v>1</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="106" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="118">
+    <row r="6" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="106">
         <v>2</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="106" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="118">
+    <row r="7" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="106">
         <v>3</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="106" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="118">
+    <row r="8" spans="1:3" s="106" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="106">
         <v>4</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="106" t="s">
         <v>562</v>
       </c>
     </row>
@@ -28479,7 +28576,7 @@
       <c r="B11">
         <v>81</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="104" t="s">
         <v>549</v>
       </c>
     </row>
@@ -28487,7 +28584,7 @@
       <c r="B12">
         <v>82</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="104" t="s">
         <v>560</v>
       </c>
     </row>
@@ -28498,7 +28595,7 @@
       <c r="B13">
         <v>76</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="105" t="s">
         <v>551</v>
       </c>
     </row>
@@ -28506,7 +28603,7 @@
       <c r="B14">
         <v>77</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="104" t="s">
         <v>550</v>
       </c>
     </row>
@@ -28514,7 +28611,7 @@
       <c r="B15">
         <v>78</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="105" t="s">
         <v>552</v>
       </c>
     </row>
@@ -28522,7 +28619,7 @@
       <c r="B16">
         <v>79</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="104" t="s">
         <v>553</v>
       </c>
     </row>
@@ -28533,7 +28630,7 @@
       <c r="B17">
         <v>86</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="104" t="s">
         <v>554</v>
       </c>
     </row>
@@ -28541,7 +28638,7 @@
       <c r="B18">
         <v>87</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="104" t="s">
         <v>555</v>
       </c>
     </row>
@@ -28552,7 +28649,7 @@
       <c r="B19">
         <v>84</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="104" t="s">
         <v>556</v>
       </c>
     </row>
@@ -28560,7 +28657,7 @@
       <c r="B20">
         <v>85</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="104" t="s">
         <v>557</v>
       </c>
     </row>
@@ -28568,7 +28665,7 @@
       <c r="B21">
         <v>88</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="104" t="s">
         <v>558</v>
       </c>
     </row>
@@ -28579,7 +28676,7 @@
       <c r="B22">
         <v>89</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="104" t="s">
         <v>559</v>
       </c>
     </row>
